--- a/data/train/IncDec-train-78516.xlsx
+++ b/data/train/IncDec-train-78516.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B561"/>
+  <dimension ref="A1:B568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Collectively NACS and SIGMA members sell more than 75 percent of the gasoline and diesel fuel purchased by American consumers each year</t>
+          <t>Mr Shimkus asked earlier whether climate legislation would raise gasoline and electricity prices</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Make no mistake the Clean Power Plan is coerciveeither a state comes up with a plan that meets with EPAs approval or EPA will impose its own Federal Implementation Plan</t>
+          <t>They include the bioremediation of mixed waste at many of the contaminated DOE sites the witchs brew that we have left from the legacy of cold war also the enhanced sequestration of carbon by the terrestrial and marine biosphere in order to reduce the atmospheric concentrations of greenhouse gases in the atmosphere and also as has already been mentioned the production of clean fuels such as hydrogen through the miracles of biotechnology</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -468,17 +468,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>And so I think that to help wean Europe off of Russian energy this might be a good thing</t>
+          <t>These two projects represent the future of coal</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>First the authority Congress set forth for setting efficiency standards the Energy Policy Conservation Act is 40 years old and has not been undated to reflect new technologies and economic realities</t>
+          <t>This group spent over two years evaluating and documenting best practices from across all types of energy pipeline systems</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -488,37 +488,37 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The other thing we can do is to make sure that any difficulties associated with splashblended ethanol are addressed by allowing us to incorporate ethanol into other ethers for example ETBE</t>
+          <t>The depressing part of my introduction is I realize I have been at this for 3 decades as part of the House of Representatives staff during the oil embargoes and after I was with Mr Garvin in 1983 and 1984 in the Energy Department running conservation and renewable programs and have been a consumer advocate for the last 10 years</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>We employ really goodpaying jobs and it is not quite clear to us whether we are qualified under that but certainly we would think we should be because as a result right now there is about 6500000 barrels of oil of refining capacity that is being built outside of our borders much of which is being targeted to come into this country so if we dont have some similar protections and some guidelines we are concerned about leakage and ultimately increasing imports at the expense of our domestic production</t>
+          <t>This bill would require the Secretary of Energy to establish a program relating to the physical security and cybersecurity for pipelines and liquefied natural gas facilities</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Last fall we published a report Biofuels Issues and Trendsit is attached to my testimonyto provide an overview of the dynamics of production consumption trade in ethanol biodiesel and cellulosic fuels</t>
+          <t>Chairman Shimkus I would like to point out one in particular the suspension of the Nuclear Waste Fund which we argued we needed to do</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>They have been in use for years in places such as Texas in order to achieve enhanced oil recovery</t>
+          <t>He has added substantially to the states ability to deal with our current energy situation</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,27 +528,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>We can all agree that we do need some oil and gas development</t>
+          <t>But it still leaves the rest of the number which is the 60 or 70 percent which has come from or will have to come from hydrocarbons using advanced technologies</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Last year US production increased over a million barrels a day and if we were to repeal the ban on crude oil exportsnow this is an opinion</t>
+          <t>The electric mix ofin electricity generation today as I understand it is coal 45 percent nuclear 20 natural gas 23 hydro seven and renewable 36</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>For illustrative purposes 43 quads is equivalent tobullet Over 20 million short tons of coal or enough coal to fill a coal train of railroad cars almost 2000 miles longbullet 418 billion cubic feet of natural gasbullet Almost 35 billion gallons of gasoline or more than 10 days of US gasoline consumptionbullet Almost 10 hours of the entire worlds energy use based on consumption levels in 1996bullet Nearly half of the approximate annual primary consumption of any one of the following states Arizona Arkansas Colorado Iowa Kansas Mississippi or Oregon based on consumption levels in 1996 This 43 quads represents a 39 total annual savings in cooling and a 19 savings in heating or a total heat and cooling savings of approximately 25 billion per year by 2010 given an adoption baseline of 1996</t>
+          <t>So we could take compliance I think from their current permit applications or new permit applications from generating stations and take that data put it into a database and ultimately from that use it to determine a greenhouse gas performance standard for particular plants that were into the interconnect</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,17 +558,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>The Presidents proposal removes this requirement allowing plants with no pollution controls at all to keep on polluting</t>
+          <t>My testimony aligns with the following points America is facing two national security threats one around climate change and the other around the US nuclear power enterprise</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>That invisible oil slick is now causing the oceans to become acidic</t>
+          <t>There is no question that the oxygenate ability of ethanol is a positive</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,17 +578,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Well in a side note a number of us went to Mexico for an interparliamentary the Friday before Thanksgiving and one of the things that was the highlight of our discussion with the Members of Congreso was the recent decision on the pipeline from Texas natural gas pipeline to northern Mexico because they dontobviously have a lot of resources but not enough production</t>
+          <t>Instead what weve learned from a steady stream of press reports and congressional hearings is that bullet EPA in fact concluded that greenhouse gas emissions endanger public welfare and submitted its finding to OMB in December of last year</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>However the point of both the Minorities in Energy Initiative as well as my workforce bill is that it really shouldnt matter who is in the White House that the agency DOE has the affirmative responsibility to work on increasing opportunities for all</t>
+          <t>bullet Efficiency Government policies should encourage the efficient use of energy by insuring a level playing field for competing sources of energy</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,47 +598,47 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Do you agree or disagree that it is too late to prevent the carbon dioxide emissions from increasing to 450</t>
+          <t>These are good solid domestic jobs that get created with energy efficiency</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>And does that make other forms of energy work better or does it replace them</t>
+          <t>Our agreement builds on XTOs nearly quarter century of success in developing affordable reliable cleanerburning US unconventional natural gas supplies for use by Americans</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>As I say in the blueprint here using energy more efficiently is akin to developing more fuel</t>
+          <t>LIPA is recognized as a leader in conservation and efficiency measurespromoting conservation installing of new energy efficient lighting and appliances and using energy efficient technologies and renewables such as geothermal heat pumps and photovoltaicswith the implementation of a fiveyear 170 million Clean Energy Initiative</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>It goes on to say that the price of coal which fires half of the US power plants has doubled since last year largely because of surging energy use in countries such as China and India</t>
+          <t>Every time DOE issues a new rule it issues a press release estimating the rules benefit in cost savings for consumers and energy savings for the Nation based on theoretical models</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Adoption of existing test procedures developed through the Energy Star program where energy conservation standards are proposed to be set based on Energy Star performance requirements is appropriate</t>
+          <t>Yes we share a commitment with Canada to work towards energy security</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,27 +648,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3 would additionally allow substitutions of Transportation Control Measures in a SIP without revisiting the SIP approval process or making a new conformity determination provided that the new measures achieve an equal or greater emissions reduction</t>
+          <t>Secretary Hogan in 2007 Congress passed the Energy Independence and Security Act</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>You probably should think about doing the same thing with our national model energy code the IECC</t>
+          <t>The future will belong to the country that builds an energy infrastructure to support a cleaner low carbon economy</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>He goes on to say there is sufficient technical basis for the Nuclear Regulatory Commission to issue a license authorizing construction of the facility</t>
+          <t>Along these same lines the Nuclear Waste Policy Act of 1982 could be amended to provide the Commission with the sole authority to establish standards for highlevel radioactive waste disposal</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Likewise in Puerto Rico Hurricanes Irma and Maria uncovered the intensified issues associated with aging and inefficient energy infrastructure contaminated sites that are rapidly multiplying landfills that are already overflowing and possibly the most contaminated drinking water supply in the United States</t>
+          <t>And many of the coops in my district have supported an alloftheabove energy policy</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,37 +688,37 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>It will take the place of 2000 megawatt coalfired power plants</t>
+          <t>What I wanted to say was that we looked at this and did some computations in the study that we did at NERA and what we found is that using an oil export ban to try to limit field emissions or greenhouse gas emissions associated with fuel consumption is about the worst possible climate policy you could think of</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>You would be a real hero if you could get us the energy bill</t>
+          <t>Production off Louisianas shore alone contributes an average of 5 billion a year to the Federal Treasury and that was when oil was less than the 68abarrelplus today</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>This bill includes vital provisions to support domestic clean energy manufacturing and export promotion</t>
+          <t>In that case the question that I will find most important is Will moving to a highoctane fuel standard do a better job in incentivizing and creating market signals for advanced biofuels</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Canada is already the largest supplier of energy to the United States meeting 12 percent of current US petroleum consumption needs and 18 percent of US petroleum imports</t>
+          <t>Could we talk for just a minute about the energy policy that is being followed by this administration</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,17 +728,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>You say coal is not competitive</t>
+          <t>Mr Stevens you mentioned in your testimony the challenge of the government policies that are picking winners and losers and you specifically mentioned the renewable fuel standards mandate for biomass fuels as a policy that could hurt the longterm sustainability of forests</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A big driver for renewable energy development has been the willingness of States to forge ahead despite the absence of federal leadership</t>
+          <t>Texas Pacific and Kohlberg Kravis Roberts the famous KKR purchased Texas Utility Corporation and agreed to terminate 8 of 11 proposed coalfired power plants</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>He said in his oil statement and again just now that somehow companyan individual company would have to go out and assess the exposure not only to their use of the chemical but to everybody else on the market</t>
+          <t>Senator Dorgan you testified that after reviewing several recent studies on the impacts of LNG exports the Bipartisan Policy Center and Energy Board concluded that domestic gas prices are more likely to drive export levels than exports are likely to determine domestic prices</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>We all want safer and more fuel efficient cars</t>
+          <t>Likewise in Puerto Rico Hurricanes Irma and Maria uncovered the intensified issues associated with aging and inefficient energy infrastructure contaminated sites that are rapidly multiplying landfills that are already overflowing and possibly the most contaminated drinking water supply in the United States</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,37 +768,37 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Well that was under the greenhouse gas requirement but did anyone at EPA consult with the Office of Management and Budget or the White House before moving forward with taking over the flexible permitting program under the Clean Air Act</t>
+          <t>Again I have those plants I have coal plants but I also have refineries and chemical plants that have another issue</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>To highlight a few first we should reestablish and expand Federal agency targets for annual improvements and energy efficiency renewable energy and other key metrics and make needed changes to unlock the use of contracting mechanisms that leverage private funds for public efficiency and renewable projects</t>
+          <t>Lawmakers must examine the welltowheels cost and impact of EVs from power plant energy distribution to battery disposal</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Under the Clear Skies Initiative all Americans will benefit from cleaner air as emissions of the major pollutants from power generation SOINF2INF NOINFXINF and mercury are reduced by roughly 70 percent</t>
+          <t>As members of this committee are well aware FERC has been without a quorum since February which has prevented action on crucial energy infrastructure projects</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>How many are actively involved in producing ethanol or biodiesel portion of the refineries</t>
+          <t>We cannot simply solve this crisis without focusing increasing our energy efficiency</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,17 +808,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1013 would create more red tape and delay and would severely reduce protections for rivers and fisheries impacted by hydroelectric generation</t>
+          <t>Economies are built on energy and materials</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>In eastern Washington hydro plays a foundational role whether it is conventional small conduit hydro</t>
+          <t>Well from my perspective its put the oil industrys perspective first and the rural communities have taken a lot of abuse through these Small Refinery Exemptions</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Anticipating efforts in the first half of 2006 particularly in the first quarter and moderating energy prices will create a seesaw effect for the US economy and manufacturing</t>
+          <t>If we develop our energy resources while vigorously protecting the health and safety of all Americans our Nation can realize enormous economic and energy security benefits</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>This need not be limited to natural gas or other energy products</t>
+          <t>The Chair would recognize the ranking member of the Energy and Air Quality Subcommittee Mr Boucher of Virginia</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,17 +848,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Although more than half the increase in natural gas consumption between 2000 to 2020 is expected in the East the Westincluding Canadian imports and most of the Gulf Offshoreis expected to provide approximately 80 percent of the incremental lower 48 natural gas supply in the reference case</t>
+          <t>As we develop a comprehensive national energy policy efficiency and conservation are definitely part of what needs to be a comprehensive plan that also needs to include the development of our own natural resources to reduce our dependence on foreign oil</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>That being said Dr Friedmann how do you react to the allegations that the administration is waging this war on coal</t>
+          <t>2997 also eliminates the emissions reporting requirement for releases associated with manure under CERCLA Section 103 and Section 304 of EPCRA</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -868,27 +868,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>We had great debate over whether this administration the Obama administration is hostile to energy production on land offshore and on Federal lands etc and the argument that that is the case is not supported by the facts</t>
+          <t>NRC currently bills its licensees or applicants about 263 per hour which is a high burden on companies seeking to develop new nuclear technologies</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Electric reliability and environmental protection are both important to this countrys future</t>
+          <t>Surrounded by 10 feet of polluted oilslick water without power or reliable communications the staff at Memorial worked for nearly five days to treat feed and evacuate patients families and local residents who sheltered in the hospital</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>So we could take compliance I think from their current permit applications or new permit applications from generating stations and take that data put it into a database and ultimately from that use it to determine a greenhouse gas performance standard for particular plants that were into the interconnect</t>
+          <t>Secretary Moniz I want to talk to you specifically about access and equity in the energy transition</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -898,37 +898,37 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>In global warming that means putting a moratorium on building huge new sources of COINF2INF emissions</t>
+          <t>For example todays efficiency standards for medium and heavyduty trucks are reducing emissions from those vehicles</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Putting the current situation in a broader more positive perspective however the US has some of the cleanest and least costly fuels in the world</t>
+          <t>Are these coal refusetoenergy facilities typically located in a smaller community or a larger community</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Exporting oil just doesnt make any sense</t>
+          <t>The 2 percent allocation for refiners is intended to keep them competitive and encourage energy efficiency improvement</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Yes we share a commitment with Canada to work towards energy security</t>
+          <t>We have a memorandum of understanding with them that they deal with the actual drilling process itself the construction of the wells those kinds of things</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,77 +938,77 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Lawmakers must examine the welltowheels cost and impact of EVs from power plant energy distribution to battery disposal</t>
+          <t>A more predictable rational and flexible air quality permit process including reforms to newsource review will allow for more investment in domestic facilities including carbon capture and a stronger domestic manufacturing base instead of production in other countries who dont share our countrys commitment to stewardship</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>If we want the industry to be capturing carbon in 2020 shouldnt we be telling them about that now in order to create the market signal</t>
+          <t>Notably the agencies appearing today along with many others signed an MOU in April seeking to establish a cooperative relationship and expedite authorizations of major infrastructure projects including hydropower facilities</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>What we also do is allow forwhat the legislation does it allow for technology limits 60 percent I think to one technology 90 percent for two and what that is doing there is saying that although wind today is the cheapest form of renewable power generation ultimately because of these cost curves you want to induce more competition and to see oil prices continue to come down</t>
+          <t>And Section 401a1 of the Clean Water Act precludes the Commission from licensing a hydroelectric project unless the project has first obtained state water quality certification or a waiver thereof</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Mr Barrett under the Nuclear Waste Policy Act we gave Nevada the tools which really means the money they need to oppose the Yucca licensing process at the NRC</t>
+          <t>And this is a key moment for the committee to play a role in addressing climate change and this bill does make several key investments for our energy future although I am willing to entertain more possibilities</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>The bill would short circuit the established review process for pending and future LNG export applications</t>
+          <t>Soand the other thing I would add is that they are not clean or completely fossilfuel free the way that renewables are</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Republicans claimed thenjust as they do nowthat the solution was to produce more oil domestically</t>
+          <t>The Report notes that The energy burden on lowincome households as a proportion of income is four times greater than for other American households</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>The first provided an overview of the future of fuels and vehicles</t>
+          <t>Congress should further accelerate the effective date of energyefficiency tax incentives in the Energy Policy Act and fund energy awareness programs at the Department of Energy</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Congress should further accelerate the effective date of energyefficiency tax incentives in the Energy Policy Act and fund energy awareness programs at the Department of Energy</t>
+          <t>Then the President issued two executive orders intended to increase energy production</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1018,47 +1018,47 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>The technology allows older coal plants to be retrofitted to burn cleaner eliminating the hassle of permitting a new power plant</t>
+          <t>Estimated potential energy savings expected to result when this program is fully implemented are in the 35 range</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Well let me just ask you this then are you basing determinations on LNG exports in part on those discussions with the G7 nations</t>
+          <t>And there are a lot of factors for this but one of the big reasons is this massive drive towards ethanol</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>This continuing improvement has been the result of more efficient engines emission control technologies and cleaner burning fuel</t>
+          <t>As you will hear today however we believe that elements of the alternative fuels discussion draft as currently constructed will not fully achieve those objectives and may ultimately be counterproductive</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>First it is the tax subsidies for unconventional energy that by far have the most detrimental effects on markets prices and consumers</t>
+          <t>As you all know the first export of LNG to scheduled to happen later this month maybe early March at Sabine Pass in Louisiana right next to Texas my own State</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Should the interstate shipment of coal be stopped because of the pollution it causes</t>
+          <t>But certainly it is important right now during this time of needed supply with questionable reliability to have any and all energy</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,47 +1068,47 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Michael McNulty Attachment B clean power group multiemission control strategy materials Clean Power Groups MultiPollutant Emission Control Strategy The power generation sector is a major contributor to US air pollution</t>
+          <t>Do you as Commissioner Norris stated the question is not whether we reduce carbon pollution but how and EPA has an answer embodied in the Clean Power Plan and that is what they are proposing as a start</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>This has to do with lowenriched uranium fuel</t>
+          <t>My advice to you would be that there would be incentives for the continued investment and development of technology to reduce carbon which does not yet exist</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>As members of this committee are well aware FERC has been without a quorum since February which has prevented action on crucial energy infrastructure projects</t>
+          <t>We see this in the programs that have received proposed budget increases like the 29 billion for the Office of Energy Efficiency and Renewable Energy a 40 percent increase</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>I think the increased production has been very good for our economy but my concern is that the technology that we need to keep production cleanby clean I mean carbon greenhouse gas emissions from production greenhouse gas emissions in transportationthat they are not there to keep up with the demand that would increase if we lifted the export ban</t>
+          <t>The first provided an overview of the future of fuels and vehicles</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Now were focusing on climate tact and climate energy</t>
+          <t>Technology can also be a driver for increased energy efficiency and Reps McNerney Welch and Kinzinger have introduced bills that analyze and support new technologies in smart buildings and water systems</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>We know that Chinas use of coal and the world has grown from 20 percent to about 30 percent now and it is expected to get to use 40 percent of the worlds coal in the next 15 years or so we know that Chinas emissions have grown by 80 percent since 1990 and they are expected to grow another 65 percent by the year 2020</t>
+          <t>Shutin gas production in the Gulf was 58 billion cubic feet per day or 58 of daily gas production in the Gulf</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Intense foreign competition from Stateowned enterprises poses another challenge for US companies particularly in the civil nuclear sector</t>
+          <t>We cut back a lot on the energy efficiency programs because we have done so much so far</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,57 +1138,57 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>It is affecting a lot of other industries that depend on natural gas as either a raw material or as a fuel</t>
+          <t>The markets are so tight though that if we can moderate demand a little bit our analysis using the same computer models that DOE uses indicates that with 4 to 5 percent energy savings we can reduce these prices over the next decade by 20 percent or more</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Second my second point the rising US gasoline prices has come at a time of soaring US gasoline production</t>
+          <t>One industry study estimates that there will be 600000 career opportunities for women and minorities in energy in the years ahead</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>This is clear in the repeated attacks on our oil and natural gas industry and its people which has provided tremendous opportunity and driven advances in cleaner energy generation that are benefiting the globe</t>
+          <t>CAFE standards have helped increase the average fuel economy of our lightduty vehicle fleet</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Hydro provides six to seven percent of all electricity generation and nearly half of all renewable generation making hydro the largest provider of renewable electricity</t>
+          <t>And we under this plan would not have the flexibility to build a new coal plant if natural gas prices go up because the technology is not available to be able to do it in an economic way that would make it possible to do it</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>In the first hearing this subcommittee had this Congress my constituent the manager of a local rural electric cooperativethat is a notforprofit entity for those who are in the businessand a former environmental officer at the Illinois Environmental Protection Agency testified that doing so would increase utility rates for again a notforprofit electricity company by 25 percent</t>
+          <t>Recent AEP initiatives include Mountaineer Plants 2009 startup of the worlds first carbon capture and storage demonstration at a coal power plant and the commissioning of an ultrasupercritical John W Turk coal power plant one of the worlds most efficient coal power plants</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>I am concerned that you all dont get noticed under the Clean Power Plan for interaction about what is going to happen when the plants close down</t>
+          <t>Sir I think the difficulty with hydrogen is around the infrastructure and that would depend on the investments that were necessary to transport it and store it and all of that I think happens over a much longer period of time</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>While each regional electric system has its own unique characteristics in general coal and nuclear plants have long supplied base load power while natural gasfired units have been used as the predominant source of loadfollowing and peaking capacity</t>
+          <t>I mean the National Association of Manufacturers claims our country would lose 3 to 4 million jobs as a result of a cap and trade energy tax so I just wanted to know if you or any other members of the panel want to answer that question</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,27 +1208,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Too often lowincome older persons are faced with the choice of risking their health and comfort by cutting back on energy expenditures or reducing spending for other basic necessities</t>
+          <t>OK well it will also have to replace fossil fuel energy generation in addition</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>We talked about earlier and some of my colleagues talked about the carbon sequestration and how it is notthe technology is not there at this point in time</t>
+          <t>Shell was one of the first integrated oil companies to acknowledge the impacts of human activity on the climate and we believe now is the time to act</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>I think all of us are committed to trying to find out what did take place and put the steps in place that are necessary to make this a safersafer and sounder future for us in terms of oil and gas exploration</t>
+          <t>We had better find a way to use coal in a clean manner</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>But I worry that you will labor mightily and give forth with a capandtrade that will produce a carbon price that is too low to affect physical change</t>
+          <t>fuel receipt and the transportation systems to be compatible with the currently NRC licensed storagetransportation systems then they could classify the fuel in those systems as nonstandard causing that fuel to lose its place in the DOEs fuel acceptance queue</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,17 +1248,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Reducing emissions of carbon dioxide and other greenhouse gases is the right move to make but we should focus on that goal and not lose perspective</t>
+          <t>It goes on to say that the price of coal which fires half of the US power plants has doubled since last year largely because of surging energy use in countries such as China and India</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Our environment and our economy depend on congressional action to confront the threat of climate change and secure our energy independence</t>
+          <t>They are the ones who bear the brunt of higher energy prices and supply disruptions</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,37 +1268,37 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Through research and demonstration of hydrogen generation and storage technology we will be able to gain the necessary safety knowledge which will lead to data driven codes and standards that do not currently exist</t>
+          <t>So this war on coal must stop</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>As we develop a comprehensive national energy policy efficiency and conservation are definitely part of what needs to be a comprehensive plan that also needs to include the development of our own natural resources to reduce our dependence on foreign oil</t>
+          <t>And he says he bids on a job and he has to be competitive with his bid and then overnight the price of diesel goes up and sometimes it goes up from when he starts the job several times before he finishes the job and there goes his profit</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>At the same time Keystone will increase our Nations longterm security by accessing oil from our friendly neighbors to the north from Canada</t>
+          <t>So this slide shows how you would replace one nuclear reactor that is 1154 megawatts with wind</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>We support requiring all lightduty vehicles starting in 2023 to be designed specifically to run on this fuel on at least a 95 octane rating and potentially higher</t>
+          <t>Well let me just ask you this then are you basing determinations on LNG exports in part on those discussions with the G7 nations</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1308,67 +1308,67 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Commander Lippold are you concerned that this legislation essentially permanently lifts the ban even though we may start to see a decrease in oil production as early as the 2020s</t>
+          <t>And what we need to do is focus on how can we most efficiently reduce consumption and help reduce those overall energy costs</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Right now today natural gas is not competitive in a lot of markets because of the price of fuel and on a 20year levelized cost of electricity dollars per megawatt pulverized coal with CO2 capture is 62 bucks</t>
+          <t>While each regional electric system has its own unique characteristics in general coal and nuclear plants have long supplied base load power while natural gasfired units have been used as the predominant source of loadfollowing and peaking capacity</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>We just spent 5281 million to retrofit one coal plant to put scrubbers on</t>
+          <t>Mercury that ends up in fish may originate as emissions to the air</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>This of course means that we will have to have an increase in nuclear waste and we need to safely store it</t>
+          <t>Remove Market Barriers The first problem we need to solve is a procedural barrier that keeps solar energy from accessing the electricity market</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>I think essential to the Yucca Mountain project to store the spent fuel down there would be a rail line</t>
+          <t>Should this final FIP result in closure of the San Juan plant and mine hundreds of jobs will be lost not only in the coal and power industry on the Nation but in the service support industry and public sector as well</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>For example if the fuel efficiency of our personal vehicle fleet was 42 miles per gallon today rather than 21 miles per gallon US oil demand would be lower by 4 million barrels per day oil markets would have spare capacity and the impact of any gasoline price spike would be far smaller</t>
+          <t>In addition the quadrennial energy review will provide an opportunity to look at obstacles to building gathering lines that would allow you to capture natural gas</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Regarding regional impacts of an RES also raised in many of the opening statements different parts of the country have access to different types of renewable energy with different cost and performance characteristics</t>
+          <t>There has been widespread media reports and even some comments by congressional leaders of gasoline price gouging by gasoline marketers in the wake of Katrina</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1378,127 +1378,127 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>The programs were talking about today like the section 1603 tax grant the Department of Energy weatherization program and the DOE loan program have improved the lives of citizens around this country creating jobs heating homes and providing resources to this Nations energy innovators</t>
+          <t>We are now in the midst of preparations for an important transitionfrom the prelicensing role defined for NRC in statute to the role of regulator and licensing authorityif a decision is made to authorize the Department of Energy DOE to submit a license application for Yucca Mountain</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>That is why he established an interagency working group focused on creating economic opportunities for communities impacted by the shift away from fossil fuels</t>
+          <t>This has to do with lowenriched uranium fuel</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Approximately 10 years ago Beaver County started to see the effects of the technological advancements that made developing the Marcellus Shale possible</t>
+          <t>And what is the US consumption of gasoline per day</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Secretary Moniz I want to talk to you specifically about access and equity in the energy transition</t>
+          <t>What we also do is allow forwhat the legislation does it allow for technology limits 60 percent I think to one technology 90 percent for two and what that is doing there is saying that although wind today is the cheapest form of renewable power generation ultimately because of these cost curves you want to induce more competition and to see oil prices continue to come down</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>This added step of accountability is crucial to keep an account of delays and avoid the increasing backlog of hydropower relicensing</t>
+          <t>On the third page of this document listed are two independent spent fuel storage installations</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Over the last decade we have emerged as the worlds leading producer of oil and natural gas and at the same time we lead the world in CO2 emission reductions a fact that proves that energy production and environmental protection are not mutually exclusive goals</t>
+          <t>As the FERC commissioners make clear in their letter a thorough assessment of the impacts of for example the proposed Clean Power Plan requires the ongoing input of diverse perspectives and expertise</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>The job creators the haulers the steel mills have all lost the ability to create jobs because of a policy that was designed and I will just end on this a policy that was designed to protect us against state oil interests</t>
+          <t>Right now today natural gas is not competitive in a lot of markets because of the price of fuel and on a 20year levelized cost of electricity dollars per megawatt pulverized coal with CO2 capture is 62 bucks</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Instead we develop runoftheriver hydro a smallscale hydro wind and wood waste power and they produced three times as many jobs</t>
+          <t>Leading Democrats are calling for the elimination of nuclear powerfortunately not our Chairman herebut nearly every single major candidate wants to eliminate or phase out nuclear power</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>OK well it will also have to replace fossil fuel energy generation in addition</t>
+          <t>We do send ethanol by barge as well but I think in this particular study what we are looking at is toxicity</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>There has been a lot of investment and that has been a lot of indirect jobs that have gone into that in building renewable refinery capacity and it is all happened not at the expense of the petroleum industry</t>
+          <t>Recently the Subcommittee received testimony it would take at least seven to nine years to just to begin transporting used fuel regardless when a site is available</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>This KXL scheme is equivalent to a 4 billionayear tax on the oil we are already getting from Canada with all the money going from American wallets and pocketbooks to oil companies</t>
+          <t>Just last month the company was even touted by President Obama for having innovators and creating jobs that will foster our economic recovery and create clean technology to power our longterm prosperity</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>It is a lesson for all of us as we consider the location of new LNG terminals as we become more dependent on natural gas</t>
+          <t>If we want the industry to be capturing carbon in 2020 shouldnt we be telling them about that now in order to create the market signal</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Under this scenario a state could never achieve attainment status with its own efforts rather the ability of states to reach attainment would depend on the willingness not only of other states but also of nations around the globe to reduce their greenhouse gas emissions</t>
+          <t>I am pleased to present the administrations views on the need for comprehensive energy legislation</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>In both cases cost is a key consideration helping determine which pollution sources should reduce emissions by how much and on what timetable</t>
+          <t>In eastern Washington hydro plays a foundational role whether it is conventional small conduit hydro</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1518,67 +1518,67 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>I dont know that we are going to pick and choose the generation sources or the energy sources that is where the American peoplefor other policymakers</t>
+          <t>It is a lesson for all of us as we consider the location of new LNG terminals as we become more dependent on natural gas</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>These are just a few of the growing costs of carbon pollution</t>
+          <t>In any event we recognize that projections of energy markets are highly uncertain and are subject to many random events that cannot be foreseen</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>We are committed to working with Congress to explore ways to maintain or enhance environmental benefits of clean fuels programs while exploring ways to increase the flexibility of the fuels distribution infrastructure and minimize costs</t>
+          <t>For example for an average family driving 2500 miles a month a 1 gallon runup in gasoline prices as we have seen in recent weeks takes 120 out of their monthly budget if they are driving vehicles that average 21 miles per gallon but it would only take 60 out of their budget if those vehicles average 42 miles per gallon which is within our technical capability</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Were very pleased to be here to discuss the final report of the Commission to Review the Effectiveness of the National Energy Laboratories</t>
+          <t>The company also engages in new hydropower development through the building of new plants at existing dams</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>In addition TIGR has also sequenced a wide range of important environmental microbessome of which live in extreme environments but may be critically important to the health of the planetand that carry out a variety of interesting metabolic reactions including degradation of cellulose and other organic matter precipitation of heavy metals such as uranium from solution and production of methane and hydrogen as potential new sources of fuel</t>
+          <t>It is in the national interest and the interest for our economy to get this going and Texans we are understanding of energy issues and the necessity of getting energy to market</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Because the answer is then if you take something like the Quadrennial Energy Review Mr Mullin</t>
+          <t>that material out to do exactly what Canada is doing to do exactly what needs to happen on the FremontWinema National Forests where you have more than 200000 acres of federal forestland that is exactly that way buginfested lodge pole pine when that material comes out why in the Devil do we say it is not renewable and cant be turned into pucks like this to help reduce carbon from coal</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>In any event we recognize that projections of energy markets are highly uncertain and are subject to many random events that cannot be foreseen</t>
+          <t>We dont harness the electricity we can from natural gas we dont sell it we dont pull it up we dont benefit the economy from it</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1588,17 +1588,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>And there have been a few sites like in Monroe Michigan where there is actually an assembly plant for wind energy</t>
+          <t>We greatly appreciate the bipartisan support for coal in the Committee as reflected in both the Housepassed version of HR</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Now I will disagree slightly in part with Mr Waxman on market forces being simply prices because sometimes energy feed stock sources are regional</t>
+          <t>And one of the big dilemmas that we face and it is being argued here I think largely around this question of decoupling is what is the dislocation that occurs when you go from one energy policy to a new one</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,47 +1608,47 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>First the nuclear crisis in Japan is now in its fourth week with no end in sight</t>
+          <t>Encouraging the broadest range of fuel technologies is critical to the type of transformational change necessary to improve our Nations energy security</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>From a consumers point of view the Nation will be better off if we have a wide range of generation options and let the market work out the most cost effective solution to supplying our energy needs over time</t>
+          <t>And then the third reason I think we have seen renaissance in the nuclear area is that the environmental benefits of nuclear energy are being recognized</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Our esteemed colleague Chairman Emeritus John Dingell on the Democratic side who led the negotiations on the 1990 Clean Air Act Amendments wrote I would have difficulty concluding the HouseSenate conferees who rejected the Senate greenhouse gas regulatory provisions contemplated regulating greenhouse gas emissions or addressing global warming under the Clean Air Act</t>
+          <t>The Clean Power Plan as proposed will call that into question</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>And I visited Oregon Techs oneofakind geothermal plant in August and saw firsthand how they are taking advantage of great renewable resources in the Klamath Basin</t>
+          <t>It is somewhat more complex and if you are familiar with how DOE is organized Mr Stupak the vast majority of work at the Department of Energy including our nuclear weapons work our research laboratories Mr Stupak</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>And if I can share more expertise that we have in Texas and the south related to wildfire hazardous fuel reduction and prescribed burning</t>
+          <t>producing the same oil that then we would have to be paying more for because then it would be coming from another country</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1658,47 +1658,47 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>In that same hearing Ms Angielski we heard testimony that fossil energy will remain a major part of the energy mix in growing nations like India Vietnam Colombia South Africa because the sources are domestic abundant and affordable</t>
+          <t>Our nations comprehensive energy policy must ensure an affordable reliable supply of energy and nuclear energy provides one of the solutions to several policy challenges that our nation faces</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Strong economic growth particularly in China and the United States is fueling a surge in oil demand</t>
+          <t>Now I will disagree slightly in part with Mr Waxman on market forces being simply prices because sometimes energy feed stock sources are regional</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>We do need to streamline the regulatory process for liquefied LNG exports</t>
+          <t>But you continue to hide evaporative emissions by even using tailpipe emissions in my opinion</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>And Mr Shimkus is from a State that has the most spent nuclear waste in the country</t>
+          <t>I want to hear whats fair when you shut down a coalfired power plant and it destroys the fabric the economic basis to run a school system in a county when millions of dollars are lost</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Accordingly I request that the Agency work with Congress particularly Chairman Shimkus Mr Welch and me as we try to develop interim and longterm solutions fuel solutions that are good for the environment and good for auto mileage good for the American consumers good for the agricultural and ethanol interest and really good for all impacted stakeholders</t>
+          <t>I think we need to increase conservation and weatherization</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Mr Linn and Mr Duplessis obviously with this being the largest oil spill in the history of our country theres lots of media attention</t>
+          <t>But the problem is that even with this particular issue included with the high gas prices we are not seeing any correspondence between underlying costs and prices in the wholesale market</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,27 +1718,27 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Again I have those plants I have coal plants but I also have refineries and chemical plants that have another issue</t>
+          <t>Now sir since coming to the EPA I would like to ask you have you met with the American Petroleum Institute</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>However it is doubtful that hydrogen demand will increase so rapidly as to adversely affect the supply of natural gas</t>
+          <t>I think all of us are committed to trying to find out what did take place and put the steps in place that are necessary to make this a safersafer and sounder future for us in terms of oil and gas exploration</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>The Chair would recognize the ranking member of the Energy and Air Quality Subcommittee Mr Boucher of Virginia</t>
+          <t>We believe to create a truly competitive vibrant energy industry these constraints should be removed</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,27 +1748,27 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>And so figuring out a mechanism to make sure we can do the work necessary to be able to fully use hydropower is critical</t>
+          <t>To promote economic growth and strengthen security President Obama has called for an alloftheabove strategy that develops every source of American energy</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>That said once again our effort has been focused on deployment and although you might note that in FY 12 we dont request any direct funds for RD in natural gas we continually support natural gas vehicles through the Clean Cities Program our deployment arm and we will continue to do so both vehicles and infrastructure</t>
+          <t>The Presidents own energy secretary the Presidents own energy secretary says Somehow we have to figure out how to boost the price of gasoline to the levels in Europe</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Although I recognize the role that nuclear power plays in our Nations longterm energy strategy and the need to properly store expired nuclear fuel I remain strongly opposed to any effort to reinstate Yucca Mountain</t>
+          <t>We just spent 5281 million to retrofit one coal plant to put scrubbers on</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,27 +1778,27 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Secondly the other consistent thing in that report as I stated earlier is the natural gas impact is having on the marketplace in general in terms of retiring old inefficient plants</t>
+          <t>Since the drafts release the Environmental Protection Agency has issued a finding that greenhouse gas emissions pose a threat to public health and welfare</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>We dont harness the electricity we can from natural gas we dont sell it we dont pull it up we dont benefit the economy from it</t>
+          <t>And three accelerate the deployment of clean energy infrastructure</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>There is not existing biology there would be no reason to have organisms involved to do this and pump lots of hydrocarbons</t>
+          <t>They must strike a demanding balance between first cost cost of operation and technical features to minimize energy consumption</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1808,27 +1808,27 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>The C2P2 encourages generators and users of coal combustion products to increase the use of coal ash in cement and other construction products</t>
+          <t>Of course some might argue that there is big difference between running a coaltochemicals manufacturing facility and a coaltoelectricity power plant</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>There is no plausible scenario that I have ever seen where African carbon emissions are going to affect global emissions so if it is a global problem the problem is in the current emitting countries it is notyou know us denying Ghana two or three natural gas power plants is going to have absolutely zero affect globally</t>
+          <t>That is why Canadas oil sands is nearly as valuable as an example of energy policy done right as it is for the oil itself</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>coal consumption Coal consumption is dominated by electric utilities which consume nearly 90 of all coal production</t>
+          <t>I am concerned that you all dont get noticed under the Clean Power Plan for interaction about what is going to happen when the plants close down</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1838,47 +1838,47 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>In that case the question that I will find most important is Will moving to a highoctane fuel standard do a better job in incentivizing and creating market signals for advanced biofuels</t>
+          <t>The mismanagement for example of nuclear waste clean up processes has been an ongoing Department of Energy problem across several Administrations</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Our staff closely tracked the markets to make sure that no one took advantage of the situation to manipulate the energy markets</t>
+          <t>but our ultimate vision is to establish leadership in hydrogen fuel cells</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>For example for an average family driving 2500 miles a month a 1 gallon runup in gasoline prices as we have seen in recent weeks takes 120 out of their monthly budget if they are driving vehicles that average 21 miles per gallon but it would only take 60 out of their budget if those vehicles average 42 miles per gallon which is within our technical capability</t>
+          <t>But the idea is to produce or to construct a coal gasification facility that will simultaneously produce electricity and produce hydrogen</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Benefiting from the economyofscale by operating and servicing a larger number of nuclear plants within a single organization these companies will be in a position to handle the financial and technological challenges that must be managed in launching the next generation of nuclear plants</t>
+          <t>But I worry that you will labor mightily and give forth with a capandtrade that will produce a carbon price that is too low to affect physical change</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>The energy markets of Canada Mexico and the US are becoming increasingly interdependent thanks in large part to the free trade status of energy commodities</t>
+          <t>So I am a bit confused because Ms McCabe testified that the EPA found that fuel efficiency technology development was moving faster than they had expected and is being implemented in the early years of the program</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -1888,17 +1888,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Mr Reicher if we do nothing other than roll back EPAs modest steps to reduce carbon emissions are we at risk at losing the clean energy jobs race with China</t>
+          <t>We need to stop fighting over a diminished pot of money and recognize that our national welfare demands that we enlarge the pot so that no deserving energy technology is starved out of federal RD funding</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>I think we need to increase conservation and weatherization</t>
+          <t>At the risk of going a little bit off topic for what this panel was asked to talk about which was lowcarbon electricity and carbon capture and storage and renewables I wanted to at least frame the issue as also associated with the renewable fuel standard that was passed by this Congress previously</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Consumers determine energy consumption every day through their purchasing decisions and the use of the products they buy</t>
+          <t>As I said previously while our attention to electricity issues has been sporadic since the passage of the Energy Policy Act of 2005 there was a time when it seemed like this committee held hearings on the electric sector almost weekly</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1918,27 +1918,27 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>The depressing part of my introduction is I realize I have been at this for 3 decades as part of the House of Representatives staff during the oil embargoes and after I was with Mr Garvin in 1983 and 1984 in the Energy Department running conservation and renewable programs and have been a consumer advocate for the last 10 years</t>
+          <t>Everyone in Washington is interested in renewables</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>But it still leaves the rest of the number which is the 60 or 70 percent which has come from or will have to come from hydrocarbons using advanced technologies</t>
+          <t>But before March 1979 was the last instance where the NRC received an application for a new nuclear power generation plant</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>We know that but you seem to be saying that so many on the other side that it is all due to man or burning coal fossil fuels and that just simply doesthat is why there is an ongoing debate on it and you are coming from your position</t>
+          <t>Our work on energy issues has described some of the consequences of hurricanes on petroleum marketssuch as rapid gasoline price increases</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>New teams will come with expertise something like auditors with expertise in energy trading something like that and if they wont perform theyll be thrown out</t>
+          <t>Fortunately I understand that FERC operations have returned to near normal having cleared much of that backlog allowing the commission to turn its attention towards a host of issues ranging from controversial changes to the RTO capacity markets to how new energy infrastructure projects should be evaluated under FERCs certificate policy</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -1958,17 +1958,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Recently the Subcommittee received testimony it would take at least seven to nine years to just to begin transporting used fuel regardless when a site is available</t>
+          <t>I think the increased production has been very good for our economy but my concern is that the technology that we need to keep production cleanby clean I mean carbon greenhouse gas emissions from production greenhouse gas emissions in transportationthat they are not there to keep up with the demand that would increase if we lifted the export ban</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>The President proposed a clean energy standard to increase the amount of energy we get from renewable sources of energy as well as from nuclear and advanced natural gas plants similar to what Mr Barton proposed from the last Congress</t>
+          <t>The Nuclear Waste Policy Act of 1982 made the transportation and longterm storage of nuclear waste the responsibility of the Secretary of Energy</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -1978,67 +1978,67 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Senator Dorgan you testified that after reviewing several recent studies on the impacts of LNG exports the Bipartisan Policy Center and Energy Board concluded that domestic gas prices are more likely to drive export levels than exports are likely to determine domestic prices</t>
+          <t>This bill sets out a national strategy to assist US clean energy technology companies with export assistance to find new markets for their products and services and to better compete in the international marketplace</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Well just to add on that most of the nuclear plant sites in the country have had to add additional storage capacity either in the form of expanding the pools themselves or how to manage the pools or putting them in what is known as dry cask storage</t>
+          <t>They are going to have to figure out what problems that will cause with the disconnect with our present Georgia gasoline</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Now let me share some of our observations about the futures markets specifically for heating oil and natural gas</t>
+          <t>In addition we recently received an early site permit from the Nuclear Regulatory Commission which certifies that our site in Clinton Illinois where we operate one nuclear reactor meets all necessary criteria for construction of a new nuclear unit</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Of course we are always concerned about keeping gasoline as affordable as possible and some critics of oil exports have raised fears of price spikes</t>
+          <t>Our notforprofit independent status precludes me from choosing between fuels</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Some products may not be available in your area for example but I am not sure of how a consumer would know which zone they are in as well as what the energy prices are in that part of the country</t>
+          <t>At the same time Keystone will increase our Nations longterm security by accessing oil from our friendly neighbors to the north from Canada</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Today Big Oil and Big Coal have been working with the Republican thought police to comb through each and every reference to global warming pollution in the Clean Air Act and then disappear them sending scientific consensus down the memory hole at the expense of public health and welfare</t>
+          <t>One of the technologies we are currently applying alongside of the SAGD is cogeneration a very energyefficient process that produces both steam for our operations and electricity for the sale to the grid</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>And we under this plan would not have the flexibility to build a new coal plant if natural gas prices go up because the technology is not available to be able to do it in an economic way that would make it possible to do it</t>
+          <t>We are currently bound to a petroleum infrastructure and before drivers will purchase a fuel cell vehicle they have to have confidence in a hydrogen refueling infrastructure</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2048,27 +2048,27 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>I want to hear whats fair when you shut down a coalfired power plant and it destroys the fabric the economic basis to run a school system in a county when millions of dollars are lost</t>
+          <t>The Department of Energy was supposed to select two scientifically appropriate sites one east of Mississippi and one west of Mississippi River</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>For instance over the last several years FERC issued two landmark orders facilitating energy storage and aggregated distributor energy resources participation in our organized wholesale markets</t>
+          <t>In his address to Congress earlier this week President Obama outlined his vision for a clean energy future that will not only help turn around our ailing economy but also drive new investment and job growth for decades to come</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>We greatly appreciate the bipartisan support for coal in the Committee as reflected in both the Housepassed version of HR</t>
+          <t>We support requiring all lightduty vehicles starting in 2023 to be designed specifically to run on this fuel on at least a 95 octane rating and potentially higher</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2078,27 +2078,27 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>IEA found that taking key actions now to reduce emissions could be done at no net economic cost while delay would impose trillions of dollars in costs on society</t>
+          <t>But if only 2 percent of the natural gas escapes through to the atmosphere then we are going to be in worse shape than if we used coal</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>As you will hear today however we believe that elements of the alternative fuels discussion draft as currently constructed will not fully achieve those objectives and may ultimately be counterproductive</t>
+          <t>I think what the President is most concerned about is that he would like to move the energy agenda forward</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Mr Shimkus asked earlier whether climate legislation would raise gasoline and electricity prices</t>
+          <t>So maybe someday we have this hole underground it can be used for longterm nuclear storage</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>OK Now those greenhouse gas emissions are not only CO2</t>
+          <t>He said in his oil statement and again just now that somehow companyan individual company would have to go out and assess the exposure not only to their use of the chemical but to everybody else on the market</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Therefore the agenda is one of purely decarbonization and climate change not really of energy security not really of air pollution because if it were about air pollution or just clean energy you would have uniform support for things like diverse nuclear power natural gas and so forth</t>
+          <t>MERGERSCONVERGENCE MERGERS PUHCA restricts consolidations between electric and gas utilities operating in the same market again the SEC has been lax in enforcing this restriction</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,17 +2128,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>bullet Allowing economies of scale in manufacturing installation operation and maintenance of renewable energy facilities</t>
+          <t>Secondly the other consistent thing in that report as I stated earlier is the natural gas impact is having on the marketplace in general in terms of retiring old inefficient plants</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Some of these accomplishments include the fact that as you mentioned Johnson Space Center with the help of FEMP technical assistance and through the use of our AFFECT which is Assisting Federal Facilities with Energy Conservation Technologies program through the use of our Federal Energy Efficiency Fund authority was able to provide 47 million of investment</t>
+          <t>He goes on to say there is sufficient technical basis for the Nuclear Regulatory Commission to issue a license authorizing construction of the facility</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,17 +2148,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>The reference case includes the effects of several policies aimed at increasing energy efficiency in both enduse technologies and supply technologies including minimum efficiency standards and voluntary energy savings programs</t>
+          <t>And we also operate the Nations most active LNG important terminal at Cove Point Maryland</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Emissions markets are established early and can provide accurate price signals to all involved</t>
+          <t>Now let me share some of our observations about the futures markets specifically for heating oil and natural gas</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2168,27 +2168,27 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Recent AEP initiatives include Mountaineer Plants 2009 startup of the worlds first carbon capture and storage demonstration at a coal power plant and the commissioning of an ultrasupercritical John W Turk coal power plant one of the worlds most efficient coal power plants</t>
+          <t>I know of nobody that could not get natural gas if they were willing to pay the price unless it was a pipeline constraint</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>The nuclear industry is demanding that you and your constituents the American taxpayer flip the bill for an unnecessary but more importantly unsafe project</t>
+          <t>The problem is that if we look ahead and we look at the fact that natural gas is still a fossil fuel comes with CO2 emissions a coaltogas switch will just not be enough to meet our climate goals</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Could we talk for just a minute about the energy policy that is being followed by this administration</t>
+          <t>But it is now 2015 and global and domestic oil markets have changed significantly we would all recognize that and SPRO needs to be modernized</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>With respect to key goals FreedomCAR is focused on petroleumfree emissionsfree transportation with an emphasis on hydrogen fuel cells and also on systems and components applicable to many types of vehicles</t>
+          <t>Excavation damage is the leading cause of natural gas distribution pipeline incidents</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2208,47 +2208,47 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Is it fair to say that Order 1000 provides a structure for other regions of the country to likewise identify and build transmission infrastructure that is needed to bring new renewable resources online</t>
+          <t>Therefore the agenda is one of purely decarbonization and climate change not really of energy security not really of air pollution because if it were about air pollution or just clean energy you would have uniform support for things like diverse nuclear power natural gas and so forth</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Independent producers develop 90 percent of domestic wells and produce 85 percent of domestic natural gas</t>
+          <t>OK And I also understand that there is a market issue in terms of how the New England plants buy their gas</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Municipal utilities in my Tennessee district saw the cost of natural gas soar to near 10 per million Btus on the spot market over the winter</t>
+          <t>And so figuring out a mechanism to make sure we can do the work necessary to be able to fully use hydropower is critical</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Fueling Infrastructure The third challenge we have to overcome is developing business models for the deployment of a hydrogen infrastructure and piloting technologies to support it</t>
+          <t>Ultimately Congressman if the Department of Homeland Security felt that the Nuclear Regulatory Commission hadnt moved either quickly enough or effectively enough visavis the threat you are talking about one would hope that the new Cabinet Secretary in conjunction with the chairman of the Nuclear Regulatory Commission can resolve that</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>When Mr Fawcett and maybe someone else was talking about the oil overseers after the American and Norwegian left and there was only the French and Russian and there was implication there that then they were being selfserving that is incorrect</t>
+          <t>Emissions markets are established early and can provide accurate price signals to all involved</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2258,77 +2258,77 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Shell was one of the first integrated oil companies to acknowledge the impacts of human activity on the climate and we believe now is the time to act</t>
+          <t>Through research and demonstration of hydrogen generation and storage technology we will be able to gain the necessary safety knowledge which will lead to data driven codes and standards that do not currently exist</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>I mean that is why we want gasoline or diesel or biofuels or something</t>
+          <t>US carbon trading is coming</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Now we have lowcost fuel</t>
+          <t>As states get closer to the implementation date for their fuel programs the greater the temptation to change the date rather than deal with the uncertainty</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>My testimony today will provide a brief overview of the hydropower licensing program and some of the challenges it faces</t>
+          <t>Funding of energy efficiency programs is a key piece of such a public benefits program with discretion provided to states</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>She thought everybody had asthma because they are all breathing that diesel smoke and toxic fumes</t>
+          <t>We are the worlds largest economy but if we do some things that are very draconian on our emissions here in the United States and really all it does is cost us jobs I am very skeptical that the rest of the world is going to follow suit</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>In any event I would like to say that I am pleased that our agenda has shifted from a debate over whether to abolish the Department of Energy or to sell off the Strategic Petroleum Reserve to a more prudent and national debate over the national energy policies</t>
+          <t>Approximately 10 years ago Beaver County started to see the effects of the technological advancements that made developing the Marcellus Shale possible</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Going further if we aggressively improve efficiency by four or five percentage points then emissions could fall by 250 metric tons about 13 percent of last years carbon dioxide emissions from coal power</t>
+          <t>For example if the fuel efficiency of our personal vehicle fleet was 42 miles per gallon today rather than 21 miles per gallon US oil demand would be lower by 4 million barrels per day oil markets would have spare capacity and the impact of any gasoline price spike would be far smaller</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>In terms of the policies of Alberta there are policies in place to recognize that the upfront costs of developing oil sands are very very high</t>
+          <t>Our investments are designed to deliver and promote reliable marketavailable policies practices and life cycle cost effective technologies that will permanently reduce a trajectory of US energy demand growth and carbon footprint of the built environment while maintaining strong economic growth</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2338,27 +2338,27 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Diesel trucks are paying 450 a gallon for diesel</t>
+          <t>It will take the place of 2000 megawatt coalfired power plants</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Leading Democrats are calling for the elimination of nuclear powerfortunately not our Chairman herebut nearly every single major candidate wants to eliminate or phase out nuclear power</t>
+          <t>Today Big Oil and Big Coal have been working with the Republican thought police to comb through each and every reference to global warming pollution in the Clean Air Act and then disappear them sending scientific consensus down the memory hole at the expense of public health and welfare</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Energy is the issue and it is one we need to deal with thoughtfully carefully deliberately through the legislative process</t>
+          <t>I will make a comment from the perspective of energy efficiency</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2368,27 +2368,27 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>American innovation and our abundant energy resources can and should be leveraged to protect our allies around the world from unreliable and unfriendly regimes and promote our interests</t>
+          <t>For these technologies air pollutant emissions will be associated only with the transport of the hydrogen to the point of use</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>As the FERC commissioners make clear in their letter a thorough assessment of the impacts of for example the proposed Clean Power Plan requires the ongoing input of diverse perspectives and expertise</t>
+          <t>This is clear in the repeated attacks on our oil and natural gas industry and its people which has provided tremendous opportunity and driven advances in cleaner energy generation that are benefiting the globe</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>We are the worlds largest economy but if we do some things that are very draconian on our emissions here in the United States and really all it does is cost us jobs I am very skeptical that the rest of the world is going to follow suit</t>
+          <t>My testimony today will provide a brief overview of the hydropower licensing program and some of the challenges it faces</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2398,37 +2398,37 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>You heard about the domestic manufacturing of wind turbine components that has also increased dramatically over the last 5 years as the renewable standards have ramped up</t>
+          <t>We are still overly dependent on foreign oil from countries that clearly we have seen especially over the last 15 years do not represent our interests and values</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>However we remain at a regional disadvantage for access to much of the existing renewable energy options</t>
+          <t>Because they will now have the controlling interest in that oil field so they can do what</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Our notforprofit independent status precludes me from choosing between fuels</t>
+          <t>I guess what I would conclude you said you would not put a roadblock up to exporting coal</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>We strongly support the need for a comprehensive energy policy that focuses on adequate supply sources to aid strategic industries such as ours</t>
+          <t>Utilization of the Foothills system through Canada under the Northern Pipeline Act provides regulatory structure and certainty for Alaskan gas as no new legislation or regulations are needed in Canada</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>We have got to have zero emissions coal if we are going to meet our needs if we are going to compete if we are going to rebuild America and also let us keep our efforts for clean nuclear energy as well</t>
+          <t>Why should we wait for a great big energy bill which may or may not come during your lifetime and mine</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -2448,17 +2448,17 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>The first one is that world oil demand has grown rapidly in the last several years putting upward pressure on price</t>
+          <t>We took a plant in Michigan called the Michigan Truck Plant which produced Expeditions and Navigators large SUVs and converted it into making small cars and now that plant makes Focus CMax hybrid CMax plugin hybrid Focus battery electric vehicle all in the same plant down the same line only place in the world where we do where that is done</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>So is the EPA do you have the statutory authority are you considering relaxing the ethanol mandate due to the corn shortage</t>
+          <t>WANO is organized through regional centers and includes every operating nuclear electric plant in the world</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2468,17 +2468,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>I look forward to working with you on these exciting new initiatives to take action on climate change and expand our clean energy economy</t>
+          <t>Massachusettss long and distinguished record investing in energy efficiency is delivering great results</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>No matter what decision we make on Yucca Mountain we still have a nuclear waste disposal issue</t>
+          <t>And does that make other forms of energy work better or does it replace them</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2488,37 +2488,37 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>As shown in Figure 3 two consequences of this flat production have been significant shortterm increases in natural gas prices reaching to near 1000MBtu combined with a substantial increase in its longterm price trend</t>
+          <t>It goes actually to the heart of what I have talked about which is when you look at energy independence and we look at developing as part of a national security strategy and having an energy policy when you look at those refineries and 30 percent being owned by foreign interests when you look at 30 percent of our oil or 27 being imported into the United States if you want to look at it at a freemarket perspective we dont have a free market</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>But I think you would agree with me that it has been in about the last 10 years or so that it has been used a lot more than it had been because of the necessity of getting some difficult natural gas out of the ground</t>
+          <t>I think it is possible on a bipartisan basis to do things that actually further the science further the research into carbon capture and conversion accelerate the use of existing technologies like nuclear power some of the alternative energy sources that we know are zero emissions wind power new hydropower things like that</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>I am drafting legislation to examine the nexus between DOEs nuclear research programs and the NRCs licensing capabilities and earlier this week my office sent over the discussion draft</t>
+          <t>However we remain at a regional disadvantage for access to much of the existing renewable energy options</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>When they heard about President Obamas proposal to put a tax of 10 on a barrel of American crude oil they all said what the heck what is he thinking</t>
+          <t>Also because Kansas allows local utilities to flow through the cost of gas to consumers the ratepayers experienced dramatic increases in the cost of natural gas during the winter seasons</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -2528,47 +2528,47 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Id like to talk about one thing that largely did work and thats nuclear energy</t>
+          <t>I mean that is why we want gasoline or diesel or biofuels or something</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>VW willfully and knowingly cheated having installed engine software in 480000 diesel vehicles to defeat emissions tests</t>
+          <t>The nuclear industry is demanding that you and your constituents the American taxpayer flip the bill for an unnecessary but more importantly unsafe project</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>The problem is that if we look ahead and we look at the fact that natural gas is still a fossil fuel comes with CO2 emissions a coaltogas switch will just not be enough to meet our climate goals</t>
+          <t>First the authority Congress set forth for setting efficiency standards the Energy Policy Conservation Act is 40 years old and has not been undated to reflect new technologies and economic realities</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Diesel is the way of the future and I am hopeful that its shortterm benefits will not be overlooked by the Administration or the Congress even as we examine longer term strategies</t>
+          <t>Our esteemed colleague Chairman Emeritus John Dingell on the Democratic side who led the negotiations on the 1990 Clean Air Act Amendments wrote I would have difficulty concluding the HouseSenate conferees who rejected the Senate greenhouse gas regulatory provisions contemplated regulating greenhouse gas emissions or addressing global warming under the Clean Air Act</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>The electric mix ofin electricity generation today as I understand it is coal 45 percent nuclear 20 natural gas 23 hydro seven and renewable 36</t>
+          <t>A 10 percent reduction in environmental management an 8 percent reduction in the Office of Science 86 percent reduction in energy efficiency and renewable energy</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -2578,17 +2578,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>So the real question is what is the cost of the fuel</t>
+          <t>Creation of a governmentindustry partnership to pursue two short term objectives resolving technical andor economic issues associated with the new nuclear plant designs and validating the new licensing processverifying that it works as intended and will not place private sector investment at risk</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>I mean I dont want to be an expert in gas cans to be able to use that product</t>
+          <t>By definition costeffective conservation is less costly than any other energy resource and conservation reduces consumers bills</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>The company also engages in new hydropower development through the building of new plants at existing dams</t>
+          <t>The Presidents proposal removes this requirement allowing plants with no pollution controls at all to keep on polluting</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>In addition the quadrennial energy review will provide an opportunity to look at obstacles to building gathering lines that would allow you to capture natural gas</t>
+          <t>Ultimately advanced concepts such as that of the DOEs Vision 21 program offer the advantages of clean efficient power with simultaneous production of liquid transportation fuels to reduce our dependence on imported petroleum</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -2618,47 +2618,47 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 10 percent reduction in environmental management an 8 percent reduction in the Office of Science 86 percent reduction in energy efficiency and renewable energy</t>
+          <t>I hope in my discussions with you today that that commitment on my part will come through to you in talking a little bit about what I plan to do and how I plan to bring my experience and my expertise that I have gained in the private sector in the nuclear industry over the years into this project to move it forward smartly in the time that I am in this job and that is my commitment to you</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Do you as Commissioner Norris stated the question is not whether we reduce carbon pollution but how and EPA has an answer embodied in the Clean Power Plan and that is what they are proposing as a start</t>
+          <t>We talked about earlier and some of my colleagues talked about the carbon sequestration and how it is notthe technology is not there at this point in time</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>I would also like to remind everyone that this is a pilot project a 2year pilot project which I think will give the Department of Energy adequate time to assess the situation and it certainly would be of benefit to our country</t>
+          <t>Second EPA is about to begin an emissions trading program for nitrogen oxide in the northeast and midwest which will also bring about significant reductions beginning in 2003</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Since the drafts release the Environmental Protection Agency has issued a finding that greenhouse gas emissions pose a threat to public health and welfare</t>
+          <t>Intense foreign competition from Stateowned enterprises poses another challenge for US companies particularly in the civil nuclear sector</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>It is our ability to capture opportunities in lowcarbon technology reduce dependence on imported foreign oil and catalyze improvements in productivity more broadly</t>
+          <t>Even using power from traditional coal plants to charge a plug in hybrid is environmentally superior for CO2 and criteria pollutants to driving a regular Toyota Prius</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -2668,37 +2668,37 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Most of the gas we will find onshore in the future will be unconventional gas that is highercost and lowermargin</t>
+          <t>We all want safer and more fuel efficient cars</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Everyone in Washington is interested in renewables</t>
+          <t>Mr Barrett under the Nuclear Waste Policy Act we gave Nevada the tools which really means the money they need to oppose the Yucca licensing process at the NRC</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>It is with growing incredulity that the rest of the industrialized world views the effectiveness of energy industry disinformation campaigns with the American public</t>
+          <t>I know their program is what they are trying to develop there is also been using solar panels so they can go to areas without electricity and still be able to process water for families in that immediate area</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Rush and others in terms of how do we organize the Department of Energy for the next generation</t>
+          <t>Last fall we published a report Biofuels Issues and Trendsit is attached to my testimonyto provide an overview of the dynamics of production consumption trade in ethanol biodiesel and cellulosic fuels</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>So you do acknowledge that using a lot of fuel does in fact create jobs</t>
+          <t>The C2P2 encourages generators and users of coal combustion products to increase the use of coal ash in cement and other construction products</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -2718,17 +2718,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>There is a great deal of uncertainty about the size and availability of crude oil resources particularly conventional resources the adequacy of investment capital and geopolitical trends</t>
+          <t>Seeing the issues that we have had with our voluntary domestic carbon market I can only imagine how these issues will be compounded when the value of potential offsets increases and we are relying on verifying offsets in the developing world</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>If the best and the brightest of our young people continue to see that the oil and gas business is a losing proposition we wont get that 32 trillion</t>
+          <t>But we do have an oil crisis</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -2738,17 +2738,17 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>But the idea is to produce or to construct a coal gasification facility that will simultaneously produce electricity and produce hydrogen</t>
+          <t>Offering alternatives that must be included by the Secretary is an unnecessary infringement on the agencys authority and expertise but granting this preferential treatment to hydropower interests is patently unjust unfair and inconsistent with every other element of the Federal Power Act</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>You guys are the guys who can make this happen because of your connection with mostlyyou have some friends over on my side but you have a lot of friends on the Democrat side and they are in charge and so I would plead with you and the other folks who are looking for expansion of energy opportunities the operating engineers the electricians that they hold out for a good bill that they are not going to lose their jobs</t>
+          <t>If you export natural gas you factor into that equation the effect on US consumers and whether it is in the best interest of the United States</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -2758,17 +2758,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>You are quoting an unnamed energy publication</t>
+          <t>I also urge that any proposal considered by this committee have the best interests of electricity consumers in mind including the promotion of conservation and renewable and innovative energy sources</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>But for the sake of our consumers our utility businesses and Americas entrepreneurs and innovators we as a Nation could take a better course of action and enact a national energy policy to begin the transition to a lowcarbon economy</t>
+          <t>I guess since I am from Louisiana I am associated with the sugar industry and I want to talk about cellulosic ethanol or ethanol from sugar but I have heard about hybrids I have heard about coal cellulosic corn ethanol</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -2778,17 +2778,17 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>This initiative requires relatively modest federal investment in nuclear energy research and development</t>
+          <t>If the best and the brightest of our young people continue to see that the oil and gas business is a losing proposition we wont get that 32 trillion</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Moreover if abnormally warm weather prevails this summer the current market may become highly sensitive to demand particularly in the Western and South Central United States where natural gas is heavily used for power generation</t>
+          <t>In addition the NRC explained to our committee staff that the operator was able to avert core damage in the full power loss scenario by activating a steampowered reactor cooling system also known as the RCIC but some NRC analysts have questioned the ability of this system to function when battery power is lost</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -2798,37 +2798,37 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>So againit came up in the other hearing and I do feel obligated to point outthere is a limit to how much energy you can import if everyone is using their system to the maximum</t>
+          <t>bullet First we need a strong and sustained push from Congress and the Administration to support biofuel production including nextgeneration cellulosic ethanol</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Secondly the volume of trading in the carbon market will be at least 300 times greater than the SO2 market</t>
+          <t>You heard about the domestic manufacturing of wind turbine components that has also increased dramatically over the last 5 years as the renewable standards have ramped up</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>that material out to do exactly what Canada is doing to do exactly what needs to happen on the FremontWinema National Forests where you have more than 200000 acres of federal forestland that is exactly that way buginfested lodge pole pine when that material comes out why in the Devil do we say it is not renewable and cant be turned into pucks like this to help reduce carbon from coal</t>
+          <t>The commission has a stake in the national energy policy and has identified areas where new legislation would be helpful</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>And then finally we should encompass principles that do not harm American energy workers that help to enhance their training and capacity to increase their economic success and security</t>
+          <t>I have been downstairs at the hearing on subsidies and price gouging on gas prices and we will be bouncing back and forth all day</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Forcing fuel switching from coal to natural gas is a tool of compliance by contrast maximizes the costs of compliance</t>
+          <t>The result has been policies that deter and forestall increased usage of natural gas which is after all the nations most environmentally benign and costeffective energy source</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -2848,37 +2848,37 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>In the energy study that was conducted last summer after the price spikes like we saw in California they found that a 25 percent reduction in their usage at peak times would have saved Californians 700 million last summer</t>
+          <t>That invisible oil slick is now causing the oceans to become acidic</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>This group spent over two years evaluating and documenting best practices from across all types of energy pipeline systems</t>
+          <t>Its very simple Because they have no incentive whatsoever to give access to the resources to oil companies</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>As a result diesel vehicles will achieve gasolinelike emissions levels</t>
+          <t>We have a very favorable climate for construction approval siting of new power plants new generating facilities</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>There is a great controversy right now Congressman over the Environmental Protection Agencys proposed rules for particulate emissions from coal plants and also greenhouse gas emissions</t>
+          <t>When Mr Fawcett and maybe someone else was talking about the oil overseers after the American and Norwegian left and there was only the French and Russian and there was implication there that then they were being selfserving that is incorrect</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -2888,27 +2888,27 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>But our bipartisan group has reached out and said you solveyou give us a waiver on ethanol</t>
+          <t>Canada is already the largest supplier of energy to the United States meeting 12 percent of current US petroleum consumption needs and 18 percent of US petroleum imports</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Finally we must determine the most environmentally sound methods of increasing energy supplies for our country</t>
+          <t>So you do acknowledge that using a lot of fuel does in fact create jobs</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Why should we wait for a great big energy bill which may or may not come during your lifetime and mine</t>
+          <t>However it is doubtful that hydrogen demand will increase so rapidly as to adversely affect the supply of natural gas</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -2918,17 +2918,17 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Page 11 of your testimony you recommend that Congress require the Clean Air Scientific Advisory Committee CASAC to comply with the Clean Air Act Section 109d and advise the Administrator of any adverse public health welfare social economic or energy effects which may result from various strategies for attainment and maintenance of air quality standards</t>
+          <t>We strongly support the need for a comprehensive energy policy that focuses on adequate supply sources to aid strategic industries such as ours</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>My companys view and my personal perspective is that all fuel sources have something to offer and a diverse portfolio is key to a reliable electric grid</t>
+          <t>And then finally we should encompass principles that do not harm American energy workers that help to enhance their training and capacity to increase their economic success and security</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>We will invest in medical research and clean energy technology</t>
+          <t>Some of these accomplishments include the fact that as you mentioned Johnson Space Center with the help of FEMP technical assistance and through the use of our AFFECT which is Assisting Federal Facilities with Energy Conservation Technologies program through the use of our Federal Energy Efficiency Fund authority was able to provide 47 million of investment</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>And at that time and today state regulators agree that users of electricity from nuclear power plants should pay for the Federal nuclear waste management and disposal program</t>
+          <t>The reference case includes the effects of several policies aimed at increasing energy efficiency in both enduse technologies and supply technologies including minimum efficiency standards and voluntary energy savings programs</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Administrator Jackson and Rear Admiral Watson yesterday the Coast Guard ordered all ships participating in the BP oil spill cleanup to cease operations after crew members on three boats reported health problems</t>
+          <t>The US Senate has twice passed a RPS and the majority of Senators on the energy bill conference supported the Bingaman RPS amendment</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -2968,27 +2968,27 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>I think in the latter part of December in the midcontinent area if you went out and tried to buy gas it was very difficult</t>
+          <t>These criteria include balancing reasonable cost burdens encouraging lowcarbon technologies providing a uniform national policy and finding the most costeffective ways to reduce emissions without choosing winners and losers</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>If you export natural gas you factor into that equation the effect on US consumers and whether it is in the best interest of the United States</t>
+          <t>We know from past statistics that the solar industry is in the top 10 growing industries in our country</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>OK And I also understand that there is a market issue in terms of how the New England plants buy their gas</t>
+          <t>Our staff closely tracked the markets to make sure that no one took advantage of the situation to manipulate the energy markets</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -2998,27 +2998,27 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>What type of an impact would meeting the goals of the Renewable Fuel Standard have on jobs here in America</t>
+          <t>I introduced a bill called the Renewable Energy Jobs Act that will provide pilot programs for training individuals for employment in renewable energy and energyefficient industries on site in these companies</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Blending ethanol is common practice throughout the country and logistics for converting terminals is very straightforward</t>
+          <t>I think in the latter part of December in the midcontinent area if you went out and tried to buy gas it was very difficult</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Again less American jobs more dependence on foreign oil</t>
+          <t>We have a great record in the Northwest on saving energy through conservation</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3028,37 +3028,37 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>The Report notes that The energy burden on lowincome households as a proportion of income is four times greater than for other American households</t>
+          <t>Fueling Infrastructure The third challenge we have to overcome is developing business models for the deployment of a hydrogen infrastructure and piloting technologies to support it</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Last year nationwide production and transportation of gas added 62 billion to Federal and State government revenues and it could elevate to 111 billion by 2020</t>
+          <t>Accordingly I request that the Agency work with Congress particularly Chairman Shimkus Mr Welch and me as we try to develop interim and longterm solutions fuel solutions that are good for the environment and good for auto mileage good for the American consumers good for the agricultural and ethanol interest and really good for all impacted stakeholders</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>I have introduced legislation with my friend Mr Doyle to make common sense reforms at the NRC to provide existing plants some relief but without a strong domestic industry how do we expect American technology and more importantly safety culture and nonproliferation standards to compete with staterun power companies like Russia and China</t>
+          <t>We have a distinguished panel that will cover all aspects of the issue from coal production to power generation from labor issues to environmental impacts from clean coal technology to consumer impacts</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>They include the bioremediation of mixed waste at many of the contaminated DOE sites the witchs brew that we have left from the legacy of cold war also the enhanced sequestration of carbon by the terrestrial and marine biosphere in order to reduce the atmospheric concentrations of greenhouse gases in the atmosphere and also as has already been mentioned the production of clean fuels such as hydrogen through the miracles of biotechnology</t>
+          <t>PSEG our company our company is already beginning to invest heavily in alternative energy</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3068,17 +3068,17 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>In fact a new EIA Commission Study concludes that oil refiners would have quote no problem quote meeting a requirement to produce 95 RON gasoline beginning in 2022 and assumes that refiners would meet that standard with E10 gasoline</t>
+          <t>So yes I mean I would agree as my testimony alluded to that projects like that in California and other States around the country are being driven in large part by State renewable electricity standards which have been beneficial in not only deploying the technologies but driving down the cost</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>This authority is vested in the Secretary of Energy and has been delegated to the assistant secretary for fossil energy</t>
+          <t>Has the RFS reduced the need for foreign oil</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Number 2 you have got to have six greenhouse gases so the lowhanging fruit that can be accomplished by changes that reduce other greenhouse gases like methane or NOx any of those the hydrofluorocarbons et cetera can help get rid of it</t>
+          <t>Now were focusing on climate tact and climate energy</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3098,47 +3098,47 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>I introduced a bill called the Renewable Energy Jobs Act that will provide pilot programs for training individuals for employment in renewable energy and energyefficient industries on site in these companies</t>
+          <t>NNSA is responsible for overseeing the approval while consulting the Office of Nuclear Energy and the DOE general counsel in addition to interagency coordination</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>LIPA is recognized as a leader in conservation and efficiency measurespromoting conservation installing of new energy efficient lighting and appliances and using energy efficient technologies and renewables such as geothermal heat pumps and photovoltaicswith the implementation of a fiveyear 170 million Clean Energy Initiative</t>
+          <t>The Energy and Commerce Committee should continue to lead the effort to ensure the Federal government meets is moral and fiduciary responsibility to clean up its defense waste and ensure the permanent safe disposal of spent nuclear fuel</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>It is time for Congress to provide an updated National Energy policy</t>
+          <t>Blending ethanol is common practice throughout the country and logistics for converting terminals is very straightforward</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>We need to stop fighting over a diminished pot of money and recognize that our national welfare demands that we enlarge the pot so that no deserving energy technology is starved out of federal RD funding</t>
+          <t>If you want to expand on that and also doesnt a twotier system basically already exist since all clean resources other than nuclear have outofmarket payment subsidies and everything that impact their bid price</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Then the President issued two executive orders intended to increase energy production</t>
+          <t>It is time for Congress to provide an updated National Energy policy</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3148,37 +3148,37 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Remove Market Barriers The first problem we need to solve is a procedural barrier that keeps solar energy from accessing the electricity market</t>
+          <t>So in a tangible way the natural gas prices do affect our operations because of the energy costs</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>For the first time in six decades the United States is a net natural gas exporter</t>
+          <t>We dont just rely on Idaho National Lab although Idaho National Lab is a flagship lab for nuclear energy we are relying on Oak Ridge we are relying on many of the others and Lawrence Livermore and other labs</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>In conclusion I would say new nuclear power construction is prohibitively expensive renewable power is variable and not yet scalable and coalfired power plants are under constant attack from the EPA</t>
+          <t>But on the other hand those that want to have exploration we think that the country and the committee should stand behind those States if the prospects are indeed there</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Congressman to me the answer to your questions depends on what your view of future fossil fuel prices are</t>
+          <t>The United States has such incredible energy abundance</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -3188,67 +3188,67 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Our agreement builds on XTOs nearly quarter century of success in developing affordable reliable cleanerburning US unconventional natural gas supplies for use by Americans</t>
+          <t>I have introduced legislation with my friend Mr Doyle to make common sense reforms at the NRC to provide existing plants some relief but without a strong domestic industry how do we expect American technology and more importantly safety culture and nonproliferation standards to compete with staterun power companies like Russia and China</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>During the campaign the President proposed a doubling of the State Energy Program to 76 million and the Weatherization Program to 306 million</t>
+          <t>Strong economic growth particularly in China and the United States is fueling a surge in oil demand</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>I will make a comment from the perspective of energy efficiency</t>
+          <t>It is our ability to capture opportunities in lowcarbon technology reduce dependence on imported foreign oil and catalyze improvements in productivity more broadly</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Yes it is in my opinion highly likely that any living thing that is exposed to high enough concentrations obviously if it is oil and dispersant mixtures are very likely to be poisoned</t>
+          <t>Well we have already issued a New Source Performance Standard that captures the volatile organic compounds in the emissions from unconventional gas when hydrofracking happens</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>And there are a lot of factors for this but one of the big reasons is this massive drive towards ethanol</t>
+          <t>Forcing fuel switching from coal to natural gas is a tool of compliance by contrast maximizes the costs of compliance</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>The good news is that almost everything you can imagine as an energy source is also something that can be made to work to produce hydrogen</t>
+          <t>Going further if we aggressively improve efficiency by four or five percentage points then emissions could fall by 250 metric tons about 13 percent of last years carbon dioxide emissions from coal power</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Technological advancements on the electrical grid from transmission through end use have helped improve efficiency and reduced emissions</t>
+          <t>While I have said on several occasions that the Yucca Mountain project merits independent and objective oversight I am also concerned that this Subcommittees myopic focus on Yucca Mountain has diverted its attention from other pressing nuclear safety issues</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -3258,17 +3258,17 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>We see this in the programs that have received proposed budget increases like the 29 billion for the Office of Energy Efficiency and Renewable Energy a 40 percent increase</t>
+          <t>Siemens Ford and Volvo have all made engines that reduce particulate emissions by more than 90 percent and nitric oxides similarly remarkably reduced</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>While I have said on several occasions that the Yucca Mountain project merits independent and objective oversight I am also concerned that this Subcommittees myopic focus on Yucca Mountain has diverted its attention from other pressing nuclear safety issues</t>
+          <t>In 2009 DOE was appropriated about 36 billion under the Recovery Act to increase taxpayer spending on energy efficiency environmental cleanup loan guarantees and various energyrelated research development and deployment projects and activities</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>So now that youre on the job I wanted to ask you specifically do you believe that greenhouse gas emissions endanger the public health</t>
+          <t>Can you elaborate why this makes such a difference for your members in providing greater certainty to prospective purchasers for redevelopment of petroleum contaminated brownfield sites that are cleaned up under a State program</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -3288,17 +3288,17 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Offering alternatives that must be included by the Secretary is an unnecessary infringement on the agencys authority and expertise but granting this preferential treatment to hydropower interests is patently unjust unfair and inconsistent with every other element of the Federal Power Act</t>
+          <t>The fact remains it was under Secretary Salazar that BPs initial exploration plan was reviewed and approved by the Minerals Management Service</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>We dont just rely on Idaho National Lab although Idaho National Lab is a flagship lab for nuclear energy we are relying on Oak Ridge we are relying on many of the others and Lawrence Livermore and other labs</t>
+          <t>Environmental concerns are extremely important because energy production and consumption involve major externalitiescosts that are not easily reflected in market transactions</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>The United States has such incredible energy abundance</t>
+          <t>The other waiver authority which you referenced is a general waiver authority where if the administrator can either be petitioned by a party or can on her own determine that the RFS implementation would create a severe economic harm to a region or a State and that the previous conversation we have been petitioned a couple of times and determined that again because of market dynamics and the demand that the refining industry has for ethanol that the statutory test simply was not met and we are not allowed to grant that waiver</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -3318,27 +3318,27 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>EPAs greenhouse gas rule will impose a de facto ban on construction of new coal</t>
+          <t>In any event I would like to say that I am pleased that our agenda has shifted from a debate over whether to abolish the Department of Energy or to sell off the Strategic Petroleum Reserve to a more prudent and national debate over the national energy policies</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>But we do have an oil crisis</t>
+          <t>bullet Allowing economies of scale in manufacturing installation operation and maintenance of renewable energy facilities</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>I am just concerned that EPA has taken the environmental cop off the beat and will go on polluting without fear of repercussions</t>
+          <t>We have done that in a way that doesnt single out any fuel supply</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -3348,27 +3348,27 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>but our ultimate vision is to establish leadership in hydrogen fuel cells</t>
+          <t>In 2017 US carbon emissions were the lowest they have been since 1992 and are projected to remain steady in upcoming years more than 10 percent below 2005 levels</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Surrounded by 10 feet of polluted oilslick water without power or reliable communications the staff at Memorial worked for nearly five days to treat feed and evacuate patients families and local residents who sheltered in the hospital</t>
+          <t>And on top of that we reached an agreement last year with the operator of the three largest coalfired electric generating units in New Jersey that are going to bring major major reductions in emissions from those units</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>And either the oil itself or something in it is whats likely causing this outbreak</t>
+          <t>A key responsibility of this Committee is to develop and ensure implementation of a Strategic Plan for disposition and consolidation of special nuclear material</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>First engage the consumer in reducing their own energy use and carbon footprint through the Energy Star Program</t>
+          <t>From a consumers point of view the Nation will be better off if we have a wide range of generation options and let the market work out the most cost effective solution to supplying our energy needs over time</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Joe Barton Chairman Committee on Energy and Commerce Thank you Mr Chairman for holding this hearing to determine the current status of the Alaska Natural Gas Pipeline</t>
+          <t>You are quoting an unnamed energy publication</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -3398,107 +3398,107 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>NNSA is responsible for overseeing the approval while consulting the Office of Nuclear Energy and the DOE general counsel in addition to interagency coordination</t>
+          <t>For example we believe that production tax credits for renewables should be extended at least ten years and apply to as broad a spectrum of renewables as possible</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>In early June 2008 the MDH received data from concerned citizens that included measurements of elevated levels of hydrogen sulfide in the ambient air in their community</t>
+          <t>You would be a real hero if you could get us the energy bill</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>At the risk of going a little bit off topic for what this panel was asked to talk about which was lowcarbon electricity and carbon capture and storage and renewables I wanted to at least frame the issue as also associated with the renewable fuel standard that was passed by this Congress previously</t>
+          <t>Four US States Minnesota Montana Idaho and North Dakota account for 75 percent of all the natural gas brought into the United States via pipeline</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Ultimately advanced concepts such as that of the DOEs Vision 21 program offer the advantages of clean efficient power with simultaneous production of liquid transportation fuels to reduce our dependence on imported petroleum</t>
+          <t>Muir is concerned only about carbon</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>My advice to you would be that there would be incentives for the continued investment and development of technology to reduce carbon which does not yet exist</t>
+          <t>I think its one of the parts of this whole conversation thats a bit disturbing in that to whatever degree the price of fuel is higher because of speculation its a limiting factor on us raising our taxes that we need to raise so that we can invest in infrastructure and offer some longterm solutions for our citizens</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>This bill is a radical rewrite of the Clean Air Act that would block any real reductions in carbon pollution from coal plants and it ignores 40 years of experience</t>
+          <t>This should not be styled to effectively mandate ethanol use however</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Along these same lines the Nuclear Waste Policy Act of 1982 could be amended to provide the Commission with the sole authority to establish standards for highlevel radioactive waste disposal</t>
+          <t>Sometimes we will give them energy sometimes they will give us energy</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Mr Caruso your testimony focuses on the supply side of natural gas</t>
+          <t>We must develop a coordinated approach to environmental and energy regulation and we must keep options open for all fuel sources especially coal the dark mineral that offers a light for our energy future</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>In Brazil where a high percentage of ethanol fuels are sold consumers do indeed consider energy content pricing rather than simply buying the cheapest fuel</t>
+          <t>And the clean energy sector employed roughly three times more workers than the fossil fuel sector in 2019</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>This should not be styled to effectively mandate ethanol use however</t>
+          <t>Today we are examining a law the Renewable Fuel Standard or RFS that is driving development of those new lowcarbon renewable fuels</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>And the clean energy sector employed roughly three times more workers than the fossil fuel sector in 2019</t>
+          <t>Oil prices are manipulated at the top by OPEC often for the express purpose of weakening competition including in the oil industry</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -3508,27 +3508,27 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Sometimes we will give them energy sometimes they will give us energy</t>
+          <t>Michael C Burgess Congress established the Corporate Average Fuel Economy program in 1975 to improve vehicle fuel economy reduce oil consumption and secure the Nations energy independence</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>But you continue to hide evaporative emissions by even using tailpipe emissions in my opinion</t>
+          <t>This outdated physical integration requirement prevents utility companies from investing capital outside their geographic region shutting off a valuable potential source of domestic capital investment in needed energy facilities and ironically fostering the very kind of concentration in regional energy markets that FERC is trying to reduce</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>You have already got your nose under the tent with the emissions part of the car</t>
+          <t>I think one of the things just to add is our COINF2INF emissions from energy consumption are down 13 percent since 2007 so this is already actually happening</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -3538,67 +3538,67 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Renewable fuel standard is putting 36 billion gallons of nongasoline into the gasoline and diesel supply through the next few decades</t>
+          <t>As a physician and someone who represents constituents who have experience too many environmental injustices I am committed to working with members of this committee to create a cleaner and healthier environment for all</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>And on top of that we reached an agreement last year with the operator of the three largest coalfired electric generating units in New Jersey that are going to bring major major reductions in emissions from those units</t>
+          <t>Energy prices soared and carbon pollution increased</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>The future will belong to the country that builds an energy infrastructure to support a cleaner low carbon economy</t>
+          <t>As the DOE continues to delay honoring its contracts with the utilities to remove spent nuclear fuel from plant sites both the amount of SNF and HLRW stored and the costs associated with storing it increase</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>In 2017 US carbon emissions were the lowest they have been since 1992 and are projected to remain steady in upcoming years more than 10 percent below 2005 levels</t>
+          <t>This bill is a radical rewrite of the Clean Air Act that would block any real reductions in carbon pollution from coal plants and it ignores 40 years of experience</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>And he says he bids on a job and he has to be competitive with his bid and then overnight the price of diesel goes up and sometimes it goes up from when he starts the job several times before he finishes the job and there goes his profit</t>
+          <t>Last year nationwide production and transportation of gas added 62 billion to Federal and State government revenues and it could elevate to 111 billion by 2020</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>In some conversations that I have had with individuals concerned about some smaller engines those in boats or motorcycles and other specialty vehicles they have had trouble running on even blends with 10 percent ethanol</t>
+          <t>Reducing emissions of carbon dioxide and other greenhouse gases is the right move to make but we should focus on that goal and not lose perspective</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>OTHER ISSUES Many other issues are under consideration with respect to a fuels title in an 2003 energy bill</t>
+          <t>Does anybody believe that the coal industry should have the right to put unlimited amounts of carbon dioxide at zero cost into the atmosphere</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -3608,17 +3608,17 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>And with Canadas vast proven oil reserves the prospect of North American energy independence is no longer political rhetoric but a promising reality</t>
+          <t>And finally the gains in energy efficiency come largely from new technologies and improvement to existing technologies</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>I am here to speak a bit about the Regional Greenhouse Gas Initiative that nine and soon 10 States in the Northeast have embraced to deal with greenhouse gas emissions from the electricity generation sector in our State</t>
+          <t>I mean it seemed to me we ran a 2 to 3 natural gas for a long time</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -3628,47 +3628,47 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>This outdated physical integration requirement prevents utility companies from investing capital outside their geographic region shutting off a valuable potential source of domestic capital investment in needed energy facilities and ironically fostering the very kind of concentration in regional energy markets that FERC is trying to reduce</t>
+          <t>But for the sake of our consumers our utility businesses and Americas entrepreneurs and innovators we as a Nation could take a better course of action and enact a national energy policy to begin the transition to a lowcarbon economy</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Are these coal refusetoenergy facilities typically located in a smaller community or a larger community</t>
+          <t>We will invest in medical research and clean energy technology</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Mr Roberts you mentioned the United Mine Workers in Appalachia and Illinois and I want you to know that there are a lot of them in my district in Western Kentucky and we are excited about Peabody Coal Company being ready to open up a new mine and also entered with a consortium on a power plant also that will use some local coal</t>
+          <t>Mr Caruso your testimony focuses on the supply side of natural gas</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Coalfired electricity is only cheap if one ignores the health and economic costs</t>
+          <t>Just as an illustration to make it as clear as I can with a chart that looks fairly complex I will try to simplify it at just how dramatic the changes are that I refer to in thein what is happening today in clean energy</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>We are approaching the dawn of as I made reference to in that film the new American energy era a time of energy abundance security and yes even independence</t>
+          <t>I am here to speak a bit about the Regional Greenhouse Gas Initiative that nine and soon 10 States in the Northeast have embraced to deal with greenhouse gas emissions from the electricity generation sector in our State</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -3678,17 +3678,17 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>This simply reflects the large amount of capital necessary to find refine and distribute petroleum products</t>
+          <t>But in fact the Department of Energy Clean Energy Future study I mentioned above uses the same model run by EIA and reaches dramatically different conclusions</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>We are now in the midst of preparations for an important transitionfrom the prelicensing role defined for NRC in statute to the role of regulator and licensing authorityif a decision is made to authorize the Department of Energy DOE to submit a license application for Yucca Mountain</t>
+          <t>Administrator Jackson and Rear Admiral Watson yesterday the Coast Guard ordered all ships participating in the BP oil spill cleanup to cease operations after crew members on three boats reported health problems</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -3698,17 +3698,17 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>In addition ethanol cannot be carried in the nations pipeline system and must be segregated from the wholesale distribution system until its addition at the truck rack</t>
+          <t>New teams will come with expertise something like auditors with expertise in energy trading something like that and if they wont perform theyll be thrown out</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>If we develop our energy resources while vigorously protecting the health and safety of all Americans our Nation can realize enormous economic and energy security benefits</t>
+          <t>You have already got your nose under the tent with the emissions part of the car</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Either Tippy dam in Michigan or the Bull Shoals dam and hydro project in Arkansas on the White River</t>
+          <t>OTHER ISSUES Many other issues are under consideration with respect to a fuels title in an 2003 energy bill</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -3728,17 +3728,17 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>And three accelerate the deployment of clean energy infrastructure</t>
+          <t>And are you aware of the significant concerns because I know I have heard a lot about it with the pending regulations and their impact on the affordability of wood wood heating</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>The Department of Energy was supposed to select two scientifically appropriate sites one east of Mississippi and one west of Mississippi River</t>
+          <t>The savings from the CAFE proposal like I mentioned is more than three times proven reserves of oil in the United States</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -3748,27 +3748,27 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Other FreedomCAR challenges include technical market infrastructure and public policy hurdles before fuel cell vehicles are commercially available and DOEs vision of a petroleum free emission free transportation system is a reality</t>
+          <t>So to the extent the administration is supportive of incentives to increase these alternatives whether it be geothermal or solar or wind they can provide an extra cushion and certainly with a hydrosystem and wind projects allow us to store power as you know in the water and allow us to shape the power curve</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>As the DOE continues to delay honoring its contracts with the utilities to remove spent nuclear fuel from plant sites both the amount of SNF and HLRW stored and the costs associated with storing it increase</t>
+          <t>As you know Mr Chairman there have been many developments in the Nations energy portfolio since FERC issued Order No</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>So in a tangible way the natural gas prices do affect our operations because of the energy costs</t>
+          <t>While that is a viable use for injected carbon we also need to store large quantities of it underground indefinitely and on that front further research development and demonstration is clearly called for</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -3778,37 +3778,37 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>bullet First we need a strong and sustained push from Congress and the Administration to support biofuel production including nextgeneration cellulosic ethanol</t>
+          <t>These plants have proven to be highly reliable in all weather conditions costeffective in operation and act as crucial anchors to the national electric grid</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A more predictable rational and flexible air quality permit process including reforms to newsource review will allow for more investment in domestic facilities including carbon capture and a stronger domestic manufacturing base instead of production in other countries who dont share our countrys commitment to stewardship</t>
+          <t>Michael McNulty Attachment B clean power group multiemission control strategy materials Clean Power Groups MultiPollutant Emission Control Strategy The power generation sector is a major contributor to US air pollution</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>CAFE standards have helped increase the average fuel economy of our lightduty vehicle fleet</t>
+          <t>And on the battery side it is really beautiful because we are very fuel agnostic</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>My home State of New Jersey has a draft energy master plan that calls for the electrifying the building sector by 2050 and reducing the reliance on natural gas for heating homes and buildings</t>
+          <t>I believe that we should ask ourselves how Federal investment into clean energy can improve the lives of our constituents and our communities</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -3818,27 +3818,27 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>On the other hand keeping the focus on energy efficiency is not easy when energy prices are low</t>
+          <t>And I hope that we can find new ways to use coal even cleaner than we are using it today</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>But what I am interested in is how we find that sweet spot where we can develop North American energy resources and effectively manage our carbon emissions simultaneously</t>
+          <t>Second with regard to clean coal as you know we dont support subsidies for coal</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>By definition costeffective conservation is less costly than any other energy resource and conservation reduces consumers bills</t>
+          <t>As a consequence of the RFS we are now just 45 percent dependent on foreign oil for our liquid transportation fuels</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -3848,37 +3848,37 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>As a consequence of the RFS we are now just 45 percent dependent on foreign oil for our liquid transportation fuels</t>
+          <t>Adoption of existing test procedures developed through the Energy Star program where energy conservation standards are proposed to be set based on Energy Star performance requirements is appropriate</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Congressman if you dont mind I think I will jump into this first and I would ask maybe to submit for the record the most recent comprehensive study conducted by the Department of Energys Argonne National Lab which looked at all of the energy balance studies that have been done over the past 10 and 15 years and concluded that without question ethanol has a positive energy balance</t>
+          <t>COMMINGLING OF DIVERGENT COMPLIANT FUELS First Congress should adopt a legislative provision to permit the commingling of divergent compliant fuels</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Primarily because of the growth in China and India for oil demand we believe oil prices will continue to increase which will place greater pressure on gasoline and diesel prices</t>
+          <t>Considering the nations maximized operational capacity increased reliance on imported oil and strained refining infrastructure any complicating factors in the gasoline distribution chain refining outages or multiple smallmarket fuel formulations can easily impact overall supply and consumer costs</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>We have done that in a way that doesnt single out any fuel supply</t>
+          <t>I think its increasingly obvious that the word green here in this case really only means low carbon</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -3888,177 +3888,177 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Production off Louisianas shore alone contributes an average of 5 billion a year to the Federal Treasury and that was when oil was less than the 68abarrelplus today</t>
+          <t>And I see no way that energy costs are going down</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>I guess what I would conclude you said you would not put a roadblock up to exporting coal</t>
+          <t>When I looked into the composition of the drilling muds and drilling fluids I hit the same kind of data gaps that Dr Reddy described</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>This will result in higherthannormal gas commodity prices even if the winter is relatively mild</t>
+          <t>Yes it is in my opinion highly likely that any living thing that is exposed to high enough concentrations obviously if it is oil and dispersant mixtures are very likely to be poisoned</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>For example advanced nuclear technologies might be one thing that you could put into repower an existing fossil generating plant like that</t>
+          <t>Moreover if abnormally warm weather prevails this summer the current market may become highly sensitive to demand particularly in the Western and South Central United States where natural gas is heavily used for power generation</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Also because Kansas allows local utilities to flow through the cost of gas to consumers the ratepayers experienced dramatic increases in the cost of natural gas during the winter seasons</t>
+          <t>Collectively NACS and SIGMA members sell more than 75 percent of the gasoline and diesel fuel purchased by American consumers each year</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Also consistent with NPC recommendations the program promotes maximum collaboration between the federal government industry and academia and it establishes a program that is an order of magnitude larger than the Department of Energys existing gas supply RD program</t>
+          <t>Do you agree or disagree that it is too late to prevent the carbon dioxide emissions from increasing to 450</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>I think what the President is most concerned about is that he would like to move the energy agenda forward</t>
+          <t>But what I am interested in is how we find that sweet spot where we can develop North American energy resources and effectively manage our carbon emissions simultaneously</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>We believe that the first of these recommendations P0001 related to the use of E911 when damage to a pipeline results in the release of gas or other hazardous substance has been resolved with a change to the best practices and recommendations to OPS earlier this year</t>
+          <t>At the end of May working gas in storage stood about 38 percent below endofMay 2002 levels and 28 percent below the previous 5year average</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>For example low NOINFXINF burner technology developed through the program is now on 75 percent of US coal fired power plants</t>
+          <t>In the energy study that was conducted last summer after the price spikes like we saw in California they found that a 25 percent reduction in their usage at peak times would have saved Californians 700 million last summer</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>We have one of the greatest resources in the world and right down the road here 30 minutes from here Eastman Chemical Corporation uses 60 carloads of coal every day that you all produce and a railroad takes to them</t>
+          <t>In the next 2 weeks large oil pipeline operators will be in compliance with the required baseline testing deadline of the highest risk segments set by the regulations</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>And I hope that we can find new ways to use coal even cleaner than we are using it today</t>
+          <t>What do you see as the Federal Governments proper role in encouraging the use of alternative fuels in vehicles</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>For example the Chairman of the Crow Nation the tribal Nation in Montana has testified before congress that the importance of coal mining to the economy of the Crow Reservation cannot be overstated</t>
+          <t>The job creators the haulers the steel mills have all lost the ability to create jobs because of a policy that was designed and I will just end on this a policy that was designed to protect us against state oil interests</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Its trading 30 percent of the West Texas Intermediate benchmark crude oil contract on United States terminals located in the United States and denominated in United States dollars</t>
+          <t>We can all agree that we do need some oil and gas development</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>I know their program is what they are trying to develop there is also been using solar panels so they can go to areas without electricity and still be able to process water for families in that immediate area</t>
+          <t>I think that is an incredibly positive development and in fact the predictions of all the oil growth that Raymond James and Citigroup have made all assume that those new rules are going to be implemented yet we are going to have this explosion in oil production yet with the production of which offshore is going to be much safer for the workers and for the environment</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>On September 21st EPA expanded this effort in order to minimize potential fuel supply disruptions caused by Hurricane Rita</t>
+          <t>And in fact even as we speak here this afternoon officials in Louisiana are still waitingstill waiting for the Federal Government to provide millions of feet in boom to approve an emergency permit to fullynot partiallyimplement their plan to dredge and build a new barrier island to prevent even more oil from reaching their marshes and wetlands</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>And Section 401a1 of the Clean Water Act precludes the Commission from licensing a hydroelectric project unless the project has first obtained state water quality certification or a waiver thereof</t>
+          <t>My home State of New Jersey has a draft energy master plan that calls for the electrifying the building sector by 2050 and reducing the reliance on natural gas for heating homes and buildings</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>But domestically it has both led to a tremendous renewal in manufacturing170 billion capital invested in just in the kind of the chemical arena and by the way also reducing carbon emissions</t>
+          <t>Chairman Meserve I have got a series of questions about the transportation of nuclear waste</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>The Presidents own energy secretary the Presidents own energy secretary says Somehow we have to figure out how to boost the price of gasoline to the levels in Europe</t>
+          <t>History is on the side of those who want to act on climate change those who believe in the power of American innovation and our ability to successfully meet any challenge and who look to the future rather than the past</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -4068,27 +4068,27 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Michael C Burgess Congress established the Corporate Average Fuel Economy program in 1975 to improve vehicle fuel economy reduce oil consumption and secure the Nations energy independence</t>
+          <t>In fact President Trump had proposed doing away with the Northeast gasoline supply reserve which had been created administratively by President Obama in response to the dangerous shortages that occurred in the wake of Superstorm Sandy including in my area of New Jersey</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Well the World Resources Institute doesnt take a particular position on this specific issue but certainly by reducing these upstream methane emissions we could ensure that natural gas is lowercarbonemittingor lowergreenhousegasemitting than coal or oil when oil and diesel fuel is used for transportation</t>
+          <t>You guys are the guys who can make this happen because of your connection with mostlyyou have some friends over on my side but you have a lot of friends on the Democrat side and they are in charge and so I would plead with you and the other folks who are looking for expansion of energy opportunities the operating engineers the electricians that they hold out for a good bill that they are not going to lose their jobs</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>The Department of Energys 32 billion budget proposal serves as a reminder of the broad range of defense science energy and environmental activities that your agency pursues to perform its really important critical I would say national and energy security missions</t>
+          <t>Well in a side note a number of us went to Mexico for an interparliamentary the Friday before Thanksgiving and one of the things that was the highlight of our discussion with the Members of Congreso was the recent decision on the pipeline from Texas natural gas pipeline to northern Mexico because they dontobviously have a lot of resources but not enough production</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -4098,37 +4098,37 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>At the end of May working gas in storage stood about 38 percent below endofMay 2002 levels and 28 percent below the previous 5year average</t>
+          <t>It wasnt that long ago that we thought we were out of natural gas as well</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Environmental concerns are extremely important because energy production and consumption involve major externalitiescosts that are not easily reflected in market transactions</t>
+          <t>Again less American jobs more dependence on foreign oil</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Have you analyzed how expected and observed climate changes will affect natural gas price fluctuations</t>
+          <t>I am just concerned that EPA has taken the environmental cop off the beat and will go on polluting without fear of repercussions</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>We have learned that MTBE if leaked or spilled can contaminate water supplies more readily than other components of gasoline</t>
+          <t>Either Tippy dam in Michigan or the Bull Shoals dam and hydro project in Arkansas on the White River</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -4138,47 +4138,47 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>We took a plant in Michigan called the Michigan Truck Plant which produced Expeditions and Navigators large SUVs and converted it into making small cars and now that plant makes Focus CMax hybrid CMax plugin hybrid Focus battery electric vehicle all in the same plant down the same line only place in the world where we do where that is done</t>
+          <t>The energy markets of Canada Mexico and the US are becoming increasingly interdependent thanks in large part to the free trade status of energy commodities</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>The gasoline sulfur standard is a national annual average standard set at 30 parts per million a 90 percent reduction over current national levels</t>
+          <t>This added step of accountability is crucial to keep an account of delays and avoid the increasing backlog of hydropower relicensing</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Is that enough reliance or should we do modeling before we resume exploration and drilling in the Gulf of Mexico</t>
+          <t>For natural gas the market is strong and active</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>And are you aware of the significant concerns because I know I have heard a lot about it with the pending regulations and their impact on the affordability of wood wood heating</t>
+          <t>Again we dont have a tax imposed on a person who buys a gas guzzling SUV but we have a gas guzzler tax that we impose on an automobile</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>We have the chance to turn a major liability into a valuable commodity through which the department can generate new revenue to help expand their mission as we move towards energy independence and combating global warming</t>
+          <t>To date the energy sector has done a good job of guarding consumers against losses caused by a cyber or physical attack</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -4188,27 +4188,27 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>I hope in my discussions with you today that that commitment on my part will come through to you in talking a little bit about what I plan to do and how I plan to bring my experience and my expertise that I have gained in the private sector in the nuclear industry over the years into this project to move it forward smartly in the time that I am in this job and that is my commitment to you</t>
+          <t>Boutique fuels only result in supply problems when a refinery problem or pipeline outage occurs</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>For example todays efficiency standards for medium and heavyduty trucks are reducing emissions from those vehicles</t>
+          <t>As far as we can tell and we have tried to look at this at EIA we cant really see a big impact in the price of gasoline from what happened with RINs in the first quarter of this year</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Our work on energy issues has described some of the consequences of hurricanes on petroleum marketssuch as rapid gasoline price increases</t>
+          <t>There is a great controversy right now Congressman over the Environmental Protection Agencys proposed rules for particulate emissions from coal plants and also greenhouse gas emissions</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -4218,37 +4218,37 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>In fact President Trump had proposed doing away with the Northeast gasoline supply reserve which had been created administratively by President Obama in response to the dangerous shortages that occurred in the wake of Superstorm Sandy including in my area of New Jersey</t>
+          <t>In addition TIGR has also sequenced a wide range of important environmental microbessome of which live in extreme environments but may be critically important to the health of the planetand that carry out a variety of interesting metabolic reactions including degradation of cellulose and other organic matter precipitation of heavy metals such as uranium from solution and production of methane and hydrogen as potential new sources of fuel</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>So yes I mean I would agree as my testimony alluded to that projects like that in California and other States around the country are being driven in large part by State renewable electricity standards which have been beneficial in not only deploying the technologies but driving down the cost</t>
+          <t>Diesel is the way of the future and I am hopeful that its shortterm benefits will not be overlooked by the Administration or the Congress even as we examine longer term strategies</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>The wood products industry is a leading user of wood fiber and producer and user of carbonneutral renewable biomass energy to run our plants</t>
+          <t>No matter what decision we make on Yucca Mountain we still have a nuclear waste disposal issue</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Second EPA is about to begin an emissions trading program for nitrogen oxide in the northeast and midwest which will also bring about significant reductions beginning in 2003</t>
+          <t>The way this technology or what enables this is that we took the genes that encode enzymes that would transform the sugar into the fuels</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -4258,37 +4258,37 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>The Commission recently met with state regulators from regions that will be most affected by high natural gas prices to discuss best practices in state conservation and hedging programs</t>
+          <t>We found in this testing that the bag house at Gaston is not big enough to accommodate the amount of activated carbon needed to consistently achieve 90 mercury control for even just one week of testing</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>But the problem is that even with this particular issue included with the high gas prices we are not seeing any correspondence between underlying costs and prices in the wholesale market</t>
+          <t>With respect to key goals FreedomCAR is focused on petroleumfree emissionsfree transportation with an emphasis on hydrogen fuel cells and also on systems and components applicable to many types of vehicles</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>I think its increasingly obvious that the word green here in this case really only means low carbon</t>
+          <t>Do you think that all drinking water systems that are located near wastewater treatment facilities that accept drilling waste should monitor intake water for radioactivity and other potentially hazardous byproducts of these activities</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>The American Gas Association represents 192 local energy utility companies that deliver natural gas to more than 53 million homes businesses and industries throughout the United States</t>
+          <t>For example the Chairman of the Crow Nation the tribal Nation in Montana has testified before congress that the importance of coal mining to the economy of the Crow Reservation cannot be overstated</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -4298,47 +4298,47 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>The article went on to note that in just the Bakken and Three Forks plays alone the US Geological Survey estimated that there are 74 billion barrels of recoverable oil and 67 trillion cubic feet of natural gas waiting to be tapped</t>
+          <t>If you were to attempt to build a scrubber and I do know what scrubbers cost because I have put them on coalfired power plants and I have put them on big plants and I know that they dont go on little plants because the plants I used to take care of in many cases are now retired because they cant afford to put it and they are considerably larger than these plants</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>For these technologies air pollutant emissions will be associated only with the transport of the hydrogen to the point of use</t>
+          <t>The Association of Oil Pipe Lines is a trade association of owners and operators of crude oil and refined petroleum product pipelines</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Mr Stevens you mentioned in your testimony the challenge of the government policies that are picking winners and losers and you specifically mentioned the renewable fuel standards mandate for biomass fuels as a policy that could hurt the longterm sustainability of forests</t>
+          <t>But domestically it has both led to a tremendous renewal in manufacturing170 billion capital invested in just in the kind of the chemical arena and by the way also reducing carbon emissions</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>We have seen cases in Pavilion Wyoming and in Dimock Pennsylvania where the EPA has also accused oil and gas operators of groundwater contamination from fracking without sufficient evidence to justify those accusations</t>
+          <t>Stockpiling should be carefully investigated by EPA and the exact amount of gas should be deducted from the critical use exemption totals each year</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>As far as we can tell and we have tried to look at this at EIA we cant really see a big impact in the price of gasoline from what happened with RINs in the first quarter of this year</t>
+          <t>We believe that the first of these recommendations P0001 related to the use of E911 when damage to a pipeline results in the release of gas or other hazardous substance has been resolved with a change to the best practices and recommendations to OPS earlier this year</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -4348,27 +4348,27 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>I mean the National Association of Manufacturers claims our country would lose 3 to 4 million jobs as a result of a cap and trade energy tax so I just wanted to know if you or any other members of the panel want to answer that question</t>
+          <t>It is the utilities driving renewable growth and many other independent power producers driving renewable growth and we can take advantage of those independent power producers through very competitive RFPs and PPAs and certainly with our own facilities</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Integrity Management Rule for Natural Gas Transmission OPS issued the integrity management rule for natural gas transmission lines on December 12 2003</t>
+          <t>To make the United States the best place in the world to manufacture and attract FDI we urge Congress and the administration more broadly to work together to create a national tax climate to promote manufacturing and embrace an alloftheabove approach to energy modernize and invest in infrastructure ensure that the benefits of regulations justify their cost implement commonsense legal reform reduce healthcare costs and ensure robust export opportunities for manufacturers in the United States including through an aggressive trade policy agenda have open markets and provides competitive export financing and works to ensure that our trading partners protect intellectual property and play by the rules</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>As potential vulnerabilities emerge in the Nations utility distribution infrastructure ensuring reliable sources of energy for our installations has become increasingly challenging</t>
+          <t>In this case industry recommended that to improve the NSR program we should allow owners of a facility to avoid the requirements of the NSR program if they improve facility energy efficiency or if they invest in a project for pollution prevention or pollution control simply on those bases</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>In 2000 these nuclear power plants produced a record 755 thousand gigawatthours of electricity</t>
+          <t>Power companies planned ahead to upgrade or retire power plants and build new resources</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -4388,17 +4388,17 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Timely advance in clean coal technology will require significant cost share funding for research and development projects and demonstrations of emerging technology and tax incentives to reduce the risks and encourage early development and refinement of the new technologies</t>
+          <t>Have you analyzed how expected and observed climate changes will affect natural gas price fluctuations</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Above all the rhetoric and the different reasons why many of us oppose the Yucca Mountain project this committee and this Congress must ask itself whether the Nuclear Waste Policy Act has been followed as Congress intended</t>
+          <t>Thus those tax policies stifled the industry at a time when US energy demand was increasing significantly</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -4408,27 +4408,27 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>So if that were correct and I dont disagree with you on that coming from a coal State but if that is correct then why are we having policy that is moving us in that direction</t>
+          <t>But I think you would agree with me that it has been in about the last 10 years or so that it has been used a lot more than it had been because of the necessity of getting some difficult natural gas out of the ground</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>In addition the NRC explained to our committee staff that the operator was able to avert core damage in the full power loss scenario by activating a steampowered reactor cooling system also known as the RCIC but some NRC analysts have questioned the ability of this system to function when battery power is lost</t>
+          <t>My own research has focused on understanding and quantifying the effects of reductions in mercury emissions</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>This bill sets out a national strategy to assist US clean energy technology companies with export assistance to find new markets for their products and services and to better compete in the international marketplace</t>
+          <t>Commander Lippold are you concerned that this legislation essentially permanently lifts the ban even though we may start to see a decrease in oil production as early as the 2020s</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>We are currently bound to a petroleum infrastructure and before drivers will purchase a fuel cell vehicle they have to have confidence in a hydrogen refueling infrastructure</t>
+          <t>As we know natural gas prices have risen sharply and likely will not drop substantially until more production goes on line in the United States</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>And that is the kind of dual standard that the Republicans want us to accept even as oil has dropped from 57 percent imported to 45 percent imported since Bush walked out the door in January</t>
+          <t>Although I recognize the role that nuclear power plays in our Nations longterm energy strategy and the need to properly store expired nuclear fuel I remain strongly opposed to any effort to reinstate Yucca Mountain</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Last year the House included a provision in its energy bill requiring a Federal study into this boutique motor fuel issue</t>
+          <t>In addition ethanol cannot be carried in the nations pipeline system and must be segregated from the wholesale distribution system until its addition at the truck rack</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -4468,27 +4468,27 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Utilization of the Foothills system through Canada under the Northern Pipeline Act provides regulatory structure and certainty for Alaskan gas as no new legislation or regulations are needed in Canada</t>
+          <t>We recently canceled a clean coal boiler project that is a good example of this potential outcome</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>I think one of the things just to add is our COINF2INF emissions from energy consumption are down 13 percent since 2007 so this is already actually happening</t>
+          <t>Benefiting from the economyofscale by operating and servicing a larger number of nuclear plants within a single organization these companies will be in a position to handle the financial and technological challenges that must be managed in launching the next generation of nuclear plants</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>So I am a bit confused because Ms McCabe testified that the EPA found that fuel efficiency technology development was moving faster than they had expected and is being implemented in the early years of the program</t>
+          <t>So for instance one of my companies Sun Drop Fuels has adopted a different model so they went to Chesapeake a natural gas company because they are going to use natural gas as part of the feedstock in their plant</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -4498,17 +4498,17 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>There is no question that the oxygenate ability of ethanol is a positive</t>
+          <t>But the good news here is that the shortterm energy markets appeared to adjust rather quickly to the collapse of the largest energy trading company in the world</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>As states get closer to the implementation date for their fuel programs the greater the temptation to change the date rather than deal with the uncertainty</t>
+          <t>OK Do pollution controls affect the power plants energy efficiency</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -4518,17 +4518,17 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>I guess since I am from Louisiana I am associated with the sugar industry and I want to talk about cellulosic ethanol or ethanol from sugar but I have heard about hybrids I have heard about coal cellulosic corn ethanol</t>
+          <t>The USGS has actively participated in two previous Federal reviews of MTBE and other oxygenates in gasoline</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>That fuel switching transferred many jobs out of Appalachia to the western part of the United States</t>
+          <t>Mr Linn and Mr Duplessis obviously with this being the largest oil spill in the history of our country theres lots of media attention</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -4538,7 +4538,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>The commission has a stake in the national energy policy and has identified areas where new legislation would be helpful</t>
+          <t>Im frustrated that the Bush administration is decimating important R D programs and not establishing realistic and attainable goals for our energy future</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -4548,27 +4548,27 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>We encourage Congress to learn from States like New Mexico when implementing programs to reduce greenhouse gas emissions</t>
+          <t>So the advantages that you would get from lets say maybe keeping a lid on the Brent price which affects gasoline pricethat advantage still exists and meanwhile the refineries are still operating</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Energy demand growth over the past 20 years has been met by the steady exploitation of the large investments made during the last energy boom period in the 1970s</t>
+          <t>Therefore the benefits resulting from the reliable and costeffective provision of generation transmission and distribution service flow directly to public power customers and communities</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>S 389 extends the existing credit and creates a second drilling window that also applies to heavy oil</t>
+          <t>This continuing improvement has been the result of more efficient engines emission control technologies and cleaner burning fuel</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -4578,17 +4578,17 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>And in fact even as we speak here this afternoon officials in Louisiana are still waitingstill waiting for the Federal Government to provide millions of feet in boom to approve an emergency permit to fullynot partiallyimplement their plan to dredge and build a new barrier island to prevent even more oil from reaching their marshes and wetlands</t>
+          <t>The Electric Power Research Institute which is I believe an independent and objective research institution part of the electric power industry put on a forum in Washington where they brought all of the modelers who had actually produced analyses of the LiebermanWarner bill the Clean Air Task Force the Energy Information Administration the work that was sponsored by the National Association of Manufacturers Massachusetts Institute of Technology with their EPO model EPA and Charles River Associates</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>The method can accept a variety of feedstocks including natural gas coal and biomass</t>
+          <t>I am drafting legislation to examine the nexus between DOEs nuclear research programs and the NRCs licensing capabilities and earlier this week my office sent over the discussion draft</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -4598,17 +4598,17 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>WANO is organized through regional centers and includes every operating nuclear electric plant in the world</t>
+          <t>We do need to streamline the regulatory process for liquefied LNG exports</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>The Energy and Commerce Committee should continue to lead the effort to ensure the Federal government meets is moral and fiduciary responsibility to clean up its defense waste and ensure the permanent safe disposal of spent nuclear fuel</t>
+          <t>Technological advancements on the electrical grid from transmission through end use have helped improve efficiency and reduced emissions</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -4618,47 +4618,47 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>But on the other hand those that want to have exploration we think that the country and the committee should stand behind those States if the prospects are indeed there</t>
+          <t>Because the States want to be able to enforce requirements on others where they dont have control in their own jurisdiction to make sure that their neighboring States or regions are reducing the emissions</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Second with regard to clean coal as you know we dont support subsidies for coal</t>
+          <t>Electric reliability and environmental protection are both important to this countrys future</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Instead as the threat from climate change becomes more and more dire and the scientific consensus of the threat becomes even clearer we are having another hearing focused on the alleged war on coal</t>
+          <t>The money basically comes from private investors in Kyoto party nations like in Europe who choose to get some of their emissions credits through the clean development mechanism by investing in countries like China or India or African countries or developing countries around the world</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>One of the technologies we are currently applying alongside of the SAGD is cogeneration a very energyefficient process that produces both steam for our operations and electricity for the sale to the grid</t>
+          <t>My companys view and my personal perspective is that all fuel sources have something to offer and a diverse portfolio is key to a reliable electric grid</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>They must strike a demanding balance between first cost cost of operation and technical features to minimize energy consumption</t>
+          <t>Our aim is to strengthen energy markets and encourage innovation throughout the electricity sector giving consumers more choice and greater control over their energy decisions while also benefiting the environment</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -4668,17 +4668,17 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>I am pleased to present the administrations views on the need for comprehensive energy legislation</t>
+          <t>An ethanol plant in these areas is an economic engine that revitalizes those areas in demonstrable ways</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Siemens Ford and Volvo have all made engines that reduce particulate emissions by more than 90 percent and nitric oxides similarly remarkably reduced</t>
+          <t>The bill would short circuit the established review process for pending and future LNG export applications</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -4688,47 +4688,47 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>As an integral part of their transmission systems interstate natural gas pipelines own and operate a majority of the natural gas storage capacity in the United States</t>
+          <t>The Commission recently met with state regulators from regions that will be most affected by high natural gas prices to discuss best practices in state conservation and hedging programs</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>So this slide shows how you would replace one nuclear reactor that is 1154 megawatts with wind</t>
+          <t>We know that Chinas use of coal and the world has grown from 20 percent to about 30 percent now and it is expected to get to use 40 percent of the worlds coal in the next 15 years or so we know that Chinas emissions have grown by 80 percent since 1990 and they are expected to grow another 65 percent by the year 2020</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>National and state energy policy can provide for the introduction and demonstration of these other sources so with time they become an integral part of the market</t>
+          <t>I am pleased to report that last week the House overwhelmingly passed the Nuclear Waste Policy Amendments Act of 2018</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>It has helped integrate renewables online</t>
+          <t>Americas hydrocarbon renaissance has given us the gift of time</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>He has added substantially to the states ability to deal with our current energy situation</t>
+          <t>As an integral part of their transmission systems interstate natural gas pipelines own and operate a majority of the natural gas storage capacity in the United States</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -4738,17 +4738,17 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>So the advantages that you would get from lets say maybe keeping a lid on the Brent price which affects gasoline pricethat advantage still exists and meanwhile the refineries are still operating</t>
+          <t>There are tremendous opportunities for further job growth in the clean energy sector but to harness that potential we need to continue to evaluate and recalibrate Federal policies</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Every piece of equipment that a retailer uses to dispense fuel has to be listed as compatible with that fuel and up until about 10 years ago there were no dispensers listed for above E10</t>
+          <t>National and state energy policy can provide for the introduction and demonstration of these other sources so with time they become an integral part of the market</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -4758,7 +4758,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>What do you see as the Federal Governments proper role in encouraging the use of alternative fuels in vehicles</t>
+          <t>As shown in Figure 3 two consequences of this flat production have been significant shortterm increases in natural gas prices reaching to near 1000MBtu combined with a substantial increase in its longterm price trend</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -4768,17 +4768,17 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Four US States Minnesota Montana Idaho and North Dakota account for 75 percent of all the natural gas brought into the United States via pipeline</t>
+          <t>I would imagine just engaging in the economywide outcome with carbon pricing Ms Palmer</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Im frustrated that the Bush administration is decimating important R D programs and not establishing realistic and attainable goals for our energy future</t>
+          <t>Are weas we move forward in supplementing initial fuelsalternative fuels</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -4788,37 +4788,37 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>If we ask any energy trader they will tell you that is the first thing that they look at</t>
+          <t>Our testing of mercury emissions indicates removal rates well in excess of the 90 percent required by the Mercury and Air Toxic Standard Rule</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Has the RFS reduced the need for foreign oil</t>
+          <t>Dr Ebinger paints a very positive picture resulting from lifting the crude oil export ban reporting a gain in GDP over the next 25 years of 600 billion orbillion to 18 trillion</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Well you want policies that can lead to even faster and cheaper emissions reductions than the carbon price would achieve on its own</t>
+          <t>And there have been a few sites like in Monroe Michigan where there is actually an assembly plant for wind energy</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>I believe that we should ask ourselves how Federal investment into clean energy can improve the lives of our constituents and our communities</t>
+          <t>There have been provisions I have disagreed with and think we should revisit like on biomass from forests not counting toward renewable fuel standards seems to be rather absurd</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -4828,27 +4828,27 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>You can obviously absorb excess spikes in natural gas prices for a while and indeed many have done that over the last number of years</t>
+          <t>In San Joaquin Valley the stationary sources which include agriculture oil and gas production your ma and pa operations all the way to your biggest manufacturing they make up only 15 percent of the pollution now because we have imposed the toughest regulations in the nation on them</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Through the Recovery Act we are making hundred million dollar grants in grant funds available to help the transit industry to improve fuel efficiency and reduce emissions for bus rail cars and other transit equipment</t>
+          <t>In fact a new EIA Commission Study concludes that oil refiners would have quote no problem quote meeting a requirement to produce 95 RON gasoline beginning in 2022 and assumes that refiners would meet that standard with E10 gasoline</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>There are a lot of options available to us in the short and long term to produce hydrogen from a variety of different sources and thats one of its attractions</t>
+          <t>You say coal is not competitive</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -4858,11 +4858,11 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>We have frequently analyzed the consequence of lower world oil prices on different regions of the world</t>
+          <t>The good news is that almost everything you can imagine as an energy source is also something that can be made to work to produce hydrogen</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -4872,63 +4872,63 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>While that is a viable use for injected carbon we also need to store large quantities of it underground indefinitely and on that front further research development and demonstration is clearly called for</t>
+          <t>There are a lot of options available to us in the short and long term to produce hydrogen from a variety of different sources and thats one of its attractions</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Thus because implementation of RFG will produce more NOINFXINF emissions than Georgias lowsulfur gasoline RFG may actually produce higher ozone values and adversely impact public health</t>
+          <t>Regarding regional impacts of an RES also raised in many of the opening statements different parts of the country have access to different types of renewable energy with different cost and performance characteristics</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>We know from past statistics that the solar industry is in the top 10 growing industries in our country</t>
+          <t>Of course we are always concerned about keeping gasoline as affordable as possible and some critics of oil exports have raised fears of price spikes</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Considering the nations maximized operational capacity increased reliance on imported oil and strained refining infrastructure any complicating factors in the gasoline distribution chain refining outages or multiple smallmarket fuel formulations can easily impact overall supply and consumer costs</t>
+          <t>It has helped integrate renewables online</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>According to the Congressional Research Service nuclear research and development has gotten more than 60 or 66 billion in energy research and development funding from 19481998</t>
+          <t>Reprogramming by nuclear transfer is faster than genebased reprogramming and may entail very different mechanisms that will teach us a lot about how to make pluripotent tissues better</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>I think it is possible on a bipartisan basis to do things that actually further the science further the research into carbon capture and conversion accelerate the use of existing technologies like nuclear power some of the alternative energy sources that we know are zero emissions wind power new hydropower things like that</t>
+          <t>Thus because implementation of RFG will produce more NOINFXINF emissions than Georgias lowsulfur gasoline RFG may actually produce higher ozone values and adversely impact public health</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -4938,7 +4938,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>The fuel diversity should be a cornerstone of our national energy policy as an important hedge against supply disruptions and price volatility</t>
+          <t>This KXL scheme is equivalent to a 4 billionayear tax on the oil we are already getting from Canada with all the money going from American wallets and pocketbooks to oil companies</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -4948,7 +4948,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>It has been 30 years since Congress designated Nevadas Yucca Mountain as a secure site for our Nations nuclear wastewater</t>
+          <t>So I would just ask that you go and pursue the administration policies that are killing energy production and causing higher gas prices instead of going to Saudi Arabia</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -4958,7 +4958,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>A delay will also give time for utilities to avoid what appears to be an overreliance on natural gas</t>
+          <t>In terms of the policies of Alberta there are policies in place to recognize that the upfront costs of developing oil sands are very very high</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -4968,17 +4968,17 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>The Nuclear Waste Policy Act of 1982 made the transportation and longterm storage of nuclear waste the responsibility of the Secretary of Energy</t>
+          <t>First engage the consumer in reducing their own energy use and carbon footprint through the Energy Star Program</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Encouraging the broadest range of fuel technologies is critical to the type of transformational change necessary to improve our Nations energy security</t>
+          <t>3 would additionally allow substitutions of Transportation Control Measures in a SIP without revisiting the SIP approval process or making a new conformity determination provided that the new measures achieve an equal or greater emissions reduction</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -4988,7 +4988,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>The Department of Energy and the National Nuclear Security Administration are fully committed to the homeland security mission and the successful establishment of the Department of Homeland Security</t>
+          <t>Congressman to me the answer to your questions depends on what your view of future fossil fuel prices are</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -4998,17 +4998,17 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Notably the agencies appearing today along with many others signed an MOU in April seeking to establish a cooperative relationship and expedite authorizations of major infrastructure projects including hydropower facilities</t>
+          <t>We had great debate over whether this administration the Obama administration is hostile to energy production on land offshore and on Federal lands etc and the argument that that is the case is not supported by the facts</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>They have to be and I am wonderingyoure over at the meeting with the gas folks12000 peopleare there any topics that are being discussed specifically as to energy efficiency</t>
+          <t>So againit came up in the other hearing and I do feel obligated to point outthere is a limit to how much energy you can import if everyone is using their system to the maximum</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -5018,7 +5018,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>We may even get some pleasant surprises such as we recently experienced with the shale gas revolution</t>
+          <t>Now its been reported that EPA has had Toyota run emissions tests on clean burn diesel vehicles for the European market</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -5028,7 +5028,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>In this case industry recommended that to improve the NSR program we should allow owners of a facility to avoid the requirements of the NSR program if they improve facility energy efficiency or if they invest in a project for pollution prevention or pollution control simply on those bases</t>
+          <t>So if that were correct and I dont disagree with you on that coming from a coal State but if that is correct then why are we having policy that is moving us in that direction</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -5038,7 +5038,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>In fact Congress is in the midst of playing local politics with the most important energy project in the United States</t>
+          <t>Integrity Management Rule for Natural Gas Transmission OPS issued the integrity management rule for natural gas transmission lines on December 12 2003</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -5048,17 +5048,17 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Ms Eckdish can you quickly discuss how the nature of diesel engines poses a unique challenge to our local communities</t>
+          <t>Coalfired electricity is only cheap if one ignores the health and economic costs</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Instead what weve learned from a steady stream of press reports and congressional hearings is that bullet EPA in fact concluded that greenhouse gas emissions endanger public welfare and submitted its finding to OMB in December of last year</t>
+          <t>We encourage Congress to learn from States like New Mexico when implementing programs to reduce greenhouse gas emissions</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -5068,17 +5068,17 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>But if only 2 percent of the natural gas escapes through to the atmosphere then we are going to be in worse shape than if we used coal</t>
+          <t>Well I am just in the research and analysis business but I would thinkand my friends in the industry can speak perhaps better but I think the biggest concern or two really one would be that the government is going to stand in the way of infrastructure projects that are needed to get investment in domestic oil and gas production and the second would be uncertainty about regulation of hydraulic fracturing going forward</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>And you will catch some really good fish and some of the best eating you are going to find right there next to the oil rig</t>
+          <t>And with Canadas vast proven oil reserves the prospect of North American energy independence is no longer political rhetoric but a promising reality</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -5088,7 +5088,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>The fossil fuel industry and House Republicans have a credibility problem when it comes to claims about the economic impacts of the Clean Air Act</t>
+          <t>Should the interstate shipment of coal be stopped because of the pollution it causes</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -5098,27 +5098,27 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Oil prices are manipulated at the top by OPEC often for the express purpose of weakening competition including in the oil industry</t>
+          <t>For example low NOINFXINF burner technology developed through the program is now on 75 percent of US coal fired power plants</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>bullet Efficiency Government policies should encourage the efficient use of energy by insuring a level playing field for competing sources of energy</t>
+          <t>The other thing we can do is to make sure that any difficulties associated with splashblended ethanol are addressed by allowing us to incorporate ethanol into other ethers for example ETBE</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>We have a great record in the Northwest on saving energy through conservation</t>
+          <t>Above all the rhetoric and the different reasons why many of us oppose the Yucca Mountain project this committee and this Congress must ask itself whether the Nuclear Waste Policy Act has been followed as Congress intended</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -5128,7 +5128,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>These criteria include balancing reasonable cost burdens encouraging lowcarbon technologies providing a uniform national policy and finding the most costeffective ways to reduce emissions without choosing winners and losers</t>
+          <t>We have seen cases in Pavilion Wyoming and in Dimock Pennsylvania where the EPA has also accused oil and gas operators of groundwater contamination from fracking without sufficient evidence to justify those accusations</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -5138,17 +5138,17 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Economies are built on energy and materials</t>
+          <t>Renewable fuel standard is putting 36 billion gallons of nongasoline into the gasoline and diesel supply through the next few decades</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>I was sitting here listening thinking of a hearing we had not many weeks ago and Mr Greenspan was with us talking about the current situation with natural gas supplies and pricing in this country</t>
+          <t>Nobody knows what theyre doing but they claim it has something to do with a gas pipeline</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -5158,7 +5158,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>And what is the US consumption of gasoline per day</t>
+          <t>However the point of both the Minorities in Energy Initiative as well as my workforce bill is that it really shouldnt matter who is in the White House that the agency DOE has the affirmative responsibility to work on increasing opportunities for all</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -5168,7 +5168,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>As you know Mr Chairman there have been many developments in the Nations energy portfolio since FERC issued Order No</t>
+          <t>We have learned that MTBE if leaked or spilled can contaminate water supplies more readily than other components of gasoline</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -5178,7 +5178,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Every time DOE issues a new rule it issues a press release estimating the rules benefit in cost savings for consumers and energy savings for the Nation based on theoretical models</t>
+          <t>But our bipartisan group has reached out and said you solveyou give us a waiver on ethanol</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -5188,7 +5188,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>We cut back a lot on the energy efficiency programs because we have done so much so far</t>
+          <t>There is no plausible scenario that I have ever seen where African carbon emissions are going to affect global emissions so if it is a global problem the problem is in the current emitting countries it is notyou know us denying Ghana two or three natural gas power plants is going to have absolutely zero affect globally</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -5198,27 +5198,27 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Second I do think that green coal and carbon sequestration is the most important single breakthrough we could make because the objective fact is China is adding one coalburning plant a week</t>
+          <t>Instead as the threat from climate change becomes more and more dire and the scientific consensus of the threat becomes even clearer we are having another hearing focused on the alleged war on coal</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>And I see no way that energy costs are going down</t>
+          <t>Although more than half the increase in natural gas consumption between 2000 to 2020 is expected in the East the Westincluding Canadian imports and most of the Gulf Offshoreis expected to provide approximately 80 percent of the incremental lower 48 natural gas supply in the reference case</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>The savings from the CAFE proposal like I mentioned is more than three times proven reserves of oil in the United States</t>
+          <t>So that is why I am grateful to you Mr Chairman for crafting the Energy and Revenue Enrichment Act to give the Department of Energy the flexibility it needs to temporarily reenrich tails at Paducah and Portsmouth</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -5228,47 +5228,47 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>We are still overly dependent on foreign oil from countries that clearly we have seen especially over the last 15 years do not represent our interests and values</t>
+          <t>And if I can share more expertise that we have in Texas and the south related to wildfire hazardous fuel reduction and prescribed burning</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>The markets are so tight though that if we can moderate demand a little bit our analysis using the same computer models that DOE uses indicates that with 4 to 5 percent energy savings we can reduce these prices over the next decade by 20 percent or more</t>
+          <t>Congressman if you dont mind I think I will jump into this first and I would ask maybe to submit for the record the most recent comprehensive study conducted by the Department of Energys Argonne National Lab which looked at all of the energy balance studies that have been done over the past 10 and 15 years and concluded that without question ethanol has a positive energy balance</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>The money basically comes from private investors in Kyoto party nations like in Europe who choose to get some of their emissions credits through the clean development mechanism by investing in countries like China or India or African countries or developing countries around the world</t>
+          <t>For example should we use natural gas directly for transport or convert it to hydrogen first</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Energy prices soared and carbon pollution increased</t>
+          <t>Under this scenario a state could never achieve attainment status with its own efforts rather the ability of states to reach attainment would depend on the willingness not only of other states but also of nations around the globe to reduce their greenhouse gas emissions</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>We have a distinguished panel that will cover all aspects of the issue from coal production to power generation from labor issues to environmental impacts from clean coal technology to consumer impacts</t>
+          <t>This of course means that we will have to have an increase in nuclear waste and we need to safely store it</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -5278,7 +5278,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>But certainly it is important right now during this time of needed supply with questionable reliability to have any and all energy</t>
+          <t>Other FreedomCAR challenges include technical market infrastructure and public policy hurdles before fuel cell vehicles are commercially available and DOEs vision of a petroleum free emission free transportation system is a reality</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -5288,37 +5288,37 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Just 10 years ago most ethanol plants capacity was 10 to 15 million gallons per year</t>
+          <t>The principal environmental benefits associated with coal gasification as compared to coal combustion processes are in the short term significantly lower emissions of serious air pollutants such as sulfur dioxide NOINFXINF and I should say almost virtual removal of volatile mercury</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>producing the same oil that then we would have to be paying more for because then it would be coming from another country</t>
+          <t>For instance over the last several years FERC issued two landmark orders facilitating energy storage and aggregated distributor energy resources participation in our organized wholesale markets</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>And the Federal Energy Regulatory Commission oversees many elements of the energy markets that this committee is familiar with including natural gas pipelines and electricity markets while the CFTC oversees natural gas and electricity futures</t>
+          <t>They have been in use for years in places such as Texas in order to achieve enhanced oil recovery</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Do you think that all drinking water systems that are located near wastewater treatment facilities that accept drilling waste should monitor intake water for radioactivity and other potentially hazardous byproducts of these activities</t>
+          <t>Some Republican Members cannot seem to decide whether they like cheap natural gas or see it as a threat that must be overcome to protect the coal industry</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -5328,7 +5328,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Mr Robo you mentioned that you are managing the largest solar bank in the world is that right</t>
+          <t>And so I think that to help wean Europe off of Russian energy this might be a good thing</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -5338,7 +5338,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>And many of the coops in my district have supported an alloftheabove energy policy</t>
+          <t>Just 10 years ago most ethanol plants capacity was 10 to 15 million gallons per year</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -5348,17 +5348,17 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>It is in the national interest and the interest for our economy to get this going and Texans we are understanding of energy issues and the necessity of getting energy to market</t>
+          <t>That said once again our effort has been focused on deployment and although you might note that in FY 12 we dont request any direct funds for RD in natural gas we continually support natural gas vehicles through the Clean Cities Program our deployment arm and we will continue to do so both vehicles and infrastructure</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Significant pillars of our program are deployment of nonCOINF2INF sources of generation like renewables and nuclear reduced COINF2INF emissions through efficiency and the COINF2INF capture from fossil fuels</t>
+          <t>FERCs authority to review proposed mergers should be expanded to include mergers of holding companies transfers of generation facilities and consolidation of electric and natural gas companies</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -5368,67 +5368,67 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>But as we look at the list of states with a high percentage of carbonbased fuels we look at Massachusetts at 90 better than 90 percent Michigan 86 percent Texas at 95 percent even Wyoming at 97 percent</t>
+          <t>I was sitting here listening thinking of a hearing we had not many weeks ago and Mr Greenspan was with us talking about the current situation with natural gas supplies and pricing in this country</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>For natural gas the market is strong and active</t>
+          <t>On the other hand keeping the focus on energy efficiency is not easy when energy prices are low</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>With regards to research and investment I do agree with Dr Howard that we believe all sorts of fuel need to be optimized</t>
+          <t>The programs were talking about today like the section 1603 tax grant the Department of Energy weatherization program and the DOE loan program have improved the lives of citizens around this country creating jobs heating homes and providing resources to this Nations energy innovators</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Stockpiling should be carefully investigated by EPA and the exact amount of gas should be deducted from the critical use exemption totals each year</t>
+          <t>She thought everybody had asthma because they are all breathing that diesel smoke and toxic fumes</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Im surprised Mr Garman didnt sort of agree with what I told him about petroleum</t>
+          <t>Instead we develop runoftheriver hydro a smallscale hydro wind and wood waste power and they produced three times as many jobs</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>There are tremendous opportunities for further job growth in the clean energy sector but to harness that potential we need to continue to evaluate and recalibrate Federal policies</t>
+          <t>The fossil fuel industry and House Republicans have a credibility problem when it comes to claims about the economic impacts of the Clean Air Act</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>In summary we believe tomorrows automobiles must be flexible enough to accommodate many different energy sources</t>
+          <t>Under the Clear Skies Initiative all Americans will benefit from cleaner air as emissions of the major pollutants from power generation SOINF2INF NOINFXINF and mercury are reduced by roughly 70 percent</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -5438,7 +5438,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Now sir since coming to the EPA I would like to ask you have you met with the American Petroleum Institute</t>
+          <t>Make no mistake the Clean Power Plan is coerciveeither a state comes up with a plan that meets with EPAs approval or EPA will impose its own Federal Implementation Plan</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -5448,17 +5448,17 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>OK Do pollution controls affect the power plants energy efficiency</t>
+          <t>3136 correctly understand the importance of not prematurely reimposing the nuclear waste fee especially given the substantial balance and large investment interest which accrues annually</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>We have partnerships throughout the United States and with universities with national labs with all kinds of differentand other companies as well looking at everything from hydrogen to of course batteries and electrification of the vehicles and what is happening with compact natural gas and everything else</t>
+          <t>Secondly the volume of trading in the carbon market will be at least 300 times greater than the SO2 market</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -5468,7 +5468,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>The Clean Power Plan as proposed will call that into question</t>
+          <t>Energy is the issue and it is one we need to deal with thoughtfully carefully deliberately through the legislative process</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -5478,67 +5478,67 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Chairman Meserve I have got a series of questions about the transportation of nuclear waste</t>
+          <t>We need to make sure that across the board from grid modernization that is needed to facilitate EVs to the buildout of electric charging infrastructure to the manufacturing of the vehicles themselves that we are harnessing that opportunity here in the US and with domestic content labor standards we are investing and leading the world in the manufacture of those vehicles and technologies</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Were you involved in any communications with the White House to push the Department of Energy to speed this thing along</t>
+          <t>In that same hearing Ms Angielski we heard testimony that fossil energy will remain a major part of the energy mix in growing nations like India Vietnam Colombia South Africa because the sources are domestic abundant and affordable</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>We believe to create a truly competitive vibrant energy industry these constraints should be removed</t>
+          <t>Towns which adds some common sense to a currently onerous relicensing process for nonfor Federal hydro projects</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>This bill would require the Secretary of Energy to establish a program relating to the physical security and cybersecurity for pipelines and liquefied natural gas facilities</t>
+          <t>So the real question is what is the cost of the fuel</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>What I wanted to say was that we looked at this and did some computations in the study that we did at NERA and what we found is that using an oil export ban to try to limit field emissions or greenhouse gas emissions associated with fuel consumption is about the worst possible climate policy you could think of</t>
+          <t>All of the research that we have done points toward the need for a full portfolio generation options which includes the need for all forms of thermal generation including nuclear and coal</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>This program would establish a unique partnership between government and industry to help ensure we meet midterm gas demand through the development of technically challenged but potentially prolific provinces</t>
+          <t>AGA represents 185 local natural gas distribution companies which deliver natural gas to 50 million customers in the United States</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>There have been provisions I have disagreed with and think we should revisit like on biomass from forests not counting toward renewable fuel standards seems to be rather absurd</t>
+          <t>A delay will also give time for utilities to avoid what appears to be an overreliance on natural gas</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -5548,7 +5548,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>About 20 some percent and yet their carbon footprint is how much more for that production</t>
+          <t>Were you involved in any communications with the White House to push the Department of Energy to speed this thing along</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -5558,7 +5558,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>And you indicated up front that innovation and energy was one of your was one of your goals</t>
+          <t>We doare very interested as I said in my remarks want to see the full investigation because we want to understand was there something else people were looking at that caused them to make the decisions they made as opposed to making the decisions that almost any of our drilling operations people would have made differently that led to the ultimate loss of the well</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -5568,27 +5568,27 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>For example we believe that production tax credits for renewables should be extended at least ten years and apply to as broad a spectrum of renewables as possible</t>
+          <t>Republicans claimed thenjust as they do nowthat the solution was to produce more oil domestically</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>The number of oil rigs operating in the United States has quadrupled in just the past 3 years</t>
+          <t>I am a big trash energy guy</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Because they will now have the controlling interest in that oil field so they can do what</t>
+          <t>So now that youre on the job I wanted to ask you specifically do you believe that greenhouse gas emissions endanger the public health</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -5598,17 +5598,17 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>MERGERSCONVERGENCE MERGERS PUHCA restricts consolidations between electric and gas utilities operating in the same market again the SEC has been lax in enforcing this restriction</t>
+          <t>The Clean Power Plan I think makes a lot of sense moving forward</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Ultimately Congressman if the Department of Homeland Security felt that the Nuclear Regulatory Commission hadnt moved either quickly enough or effectively enough visavis the threat you are talking about one would hope that the new Cabinet Secretary in conjunction with the chairman of the Nuclear Regulatory Commission can resolve that</t>
+          <t>In conclusion I would say new nuclear power construction is prohibitively expensive renewable power is variable and not yet scalable and coalfired power plants are under constant attack from the EPA</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -5618,67 +5618,67 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>The changes would inappropriately expand FERCs natural gas authority attempt to undermine States rights and undermine the important role that other Federal and State agencies play in protecting natural resources for the public</t>
+          <t>It would affect ethanol prices to some extent</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>And then the third reason I think we have seen renaissance in the nuclear area is that the environmental benefits of nuclear energy are being recognized</t>
+          <t>The number of oil rigs operating in the United States has quadrupled in just the past 3 years</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Throughout the South and Southeast state governments have enacted legislation or implemented new regulations to encourage new nuclear plant construction</t>
+          <t>The environment doesnt benefit and you have these constricted flows and it seems to me it does not benefit anybody other than the industry that is out there designed to shut down any progress on energy development</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>And we also operate the Nations most active LNG important terminal at Cove Point Maryland</t>
+          <t>This authority is vested in the Secretary of Energy and has been delegated to the assistant secretary for fossil energy</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Muir is concerned only about carbon</t>
+          <t>Unfortunately due to nonmarket governmental forces giving preferential treatment to certain renewables two of these plants Byron and Dresden are now slated for closure</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>They are going to have to figure out what problems that will cause with the disconnect with our present Georgia gasoline</t>
+          <t>Municipal utilities in my Tennessee district saw the cost of natural gas soar to near 10 per million Btus on the spot market over the winter</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>PSEG our company our company is already beginning to invest heavily in alternative energy</t>
+          <t>Id like to talk about one thing that largely did work and thats nuclear energy</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -5688,7 +5688,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>In his address to Congress earlier this week President Obama outlined his vision for a clean energy future that will not only help turn around our ailing economy but also drive new investment and job growth for decades to come</t>
+          <t>Ed Whitfield This mornings hearing focuses on EPAs proposed Clean Power Plan which would impose federal limits on carbon dioxide emissions from each states electricity system</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -5698,7 +5698,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>So to the extent the administration is supportive of incentives to increase these alternatives whether it be geothermal or solar or wind they can provide an extra cushion and certainly with a hydrosystem and wind projects allow us to store power as you know in the water and allow us to shape the power curve</t>
+          <t>Throughout the South and Southeast state governments have enacted legislation or implemented new regulations to encourage new nuclear plant construction</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -5708,7 +5708,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>In this case those factors are the consequences of a strike in Venezuela that crippled that countrys export capability for months weather much colder than normal in parts of the country where energy use is extremely sensitive to temperature and uncertainty over crude oil supply in the immediate future due to the international situation involving Iraq</t>
+          <t>For illustrative purposes 43 quads is equivalent tobullet Over 20 million short tons of coal or enough coal to fill a coal train of railroad cars almost 2000 miles longbullet 418 billion cubic feet of natural gasbullet Almost 35 billion gallons of gasoline or more than 10 days of US gasoline consumptionbullet Almost 10 hours of the entire worlds energy use based on consumption levels in 1996bullet Nearly half of the approximate annual primary consumption of any one of the following states Arizona Arkansas Colorado Iowa Kansas Mississippi or Oregon based on consumption levels in 1996 This 43 quads represents a 39 total annual savings in cooling and a 19 savings in heating or a total heat and cooling savings of approximately 25 billion per year by 2010 given an adoption baseline of 1996</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -5718,7 +5718,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>The environment doesnt benefit and you have these constricted flows and it seems to me it does not benefit anybody other than the industry that is out there designed to shut down any progress on energy development</t>
+          <t>The Department of Energys 32 billion budget proposal serves as a reminder of the broad range of defense science energy and environmental activities that your agency pursues to perform its really important critical I would say national and energy security missions</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -5728,17 +5728,17 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Our aim is to strengthen energy markets and encourage innovation throughout the electricity sector giving consumers more choice and greater control over their energy decisions while also benefiting the environment</t>
+          <t>That fuel switching transferred many jobs out of Appalachia to the western part of the United States</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>More recently while on the US Air Force Headquarters Staff I participated in developing and managing the response to the real world cyber attacks against the Department of Defense information infrastructure that came to be known as Solar Sunrise and Moonlight Maze</t>
+          <t>And I visited Oregon Techs oneofakind geothermal plant in August and saw firsthand how they are taking advantage of great renewable resources in the Klamath Basin</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -5748,27 +5748,27 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>So maybe someday we have this hole underground it can be used for longterm nuclear storage</t>
+          <t>Also consistent with NPC recommendations the program promotes maximum collaboration between the federal government industry and academia and it establishes a program that is an order of magnitude larger than the Department of Energys existing gas supply RD program</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>US dependence on imported oil has fallen since the RFS was enacted from 60 percent in 2005 to 40 percent today</t>
+          <t>But as we look at the list of states with a high percentage of carbonbased fuels we look at Massachusetts at 90 better than 90 percent Michigan 86 percent Texas at 95 percent even Wyoming at 97 percent</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Does anybody believe that the coal industry should have the right to put unlimited amounts of carbon dioxide at zero cost into the atmosphere</t>
+          <t>In this case those factors are the consequences of a strike in Venezuela that crippled that countrys export capability for months weather much colder than normal in parts of the country where energy use is extremely sensitive to temperature and uncertainty over crude oil supply in the immediate future due to the international situation involving Iraq</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -5778,7 +5778,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>A leading example is the Energy Star Program which is delivering significant results</t>
+          <t>OK Now those greenhouse gas emissions are not only CO2</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -5788,27 +5788,27 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>And a lot of it had to do with deregulating our domestic environment and making a whole suite of challenges and deciding that we were going to commit to this internationally connected and efficient market for oil and gas and things like that</t>
+          <t>Heating oil provides heat to only about 7 percent of the fuel consumed by residences on a national basis but the demand is not uniformly distributed the Northeast consumes the about 73 percent of all the heating oil used in the country</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Thus those tax policies stifled the industry at a time when US energy demand was increasing significantly</t>
+          <t>The concern I have I have expressed it many times on the high cost of natural gas and not only for heating our homes or cooling our homes if you are in my area of the country but also for the feed stock for our petrochemical industry</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Secretary Hogan in 2007 Congress passed the Energy Independence and Security Act</t>
+          <t>The President proposed a clean energy standard to increase the amount of energy we get from renewable sources of energy as well as from nuclear and advanced natural gas plants similar to what Mr Barton proposed from the last Congress</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -5818,17 +5818,17 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>The way this technology or what enables this is that we took the genes that encode enzymes that would transform the sugar into the fuels</t>
+          <t>The fuel diversity should be a cornerstone of our national energy policy as an important hedge against supply disruptions and price volatility</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Dont you think particularly dealing with climate change and carbon because if a ton of carbon goes up in Houston Texas and a ton of carbon goes up in China it is basically the same on the worldwide impact unlike some of our other pollutants</t>
+          <t>Activated carbon is a specially prepared product of coal or biomass that is able to adsorb many chemicals from gases or liquids</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -5838,27 +5838,27 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>If we really do something about climate change by reducing COINF2INF emissions and reduced demand for oil can that help us restrain the price increases of oil</t>
+          <t>Members of my local union located in Michigan spent months working on the TransAlaska pipeline which covers 800 miles and carries oil from the North Slope of Alaska to Valdez Alaska</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Electricity generated from coal is used in all 50 states</t>
+          <t>In this same vein expert witnesses are called before us today to discuss policies to deeply decarbonize our economy and strengthen our infrastructure against threats like climate change</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Shutin gas production in the Gulf was 58 billion cubic feet per day or 58 of daily gas production in the Gulf</t>
+          <t>It has been 30 years since Congress designated Nevadas Yucca Mountain as a secure site for our Nations nuclear wastewater</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -5868,7 +5868,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Our investments are designed to deliver and promote reliable marketavailable policies practices and life cycle cost effective technologies that will permanently reduce a trajectory of US energy demand growth and carbon footprint of the built environment while maintaining strong economic growth</t>
+          <t>To highlight a few first we should reestablish and expand Federal agency targets for annual improvements and energy efficiency renewable energy and other key metrics and make needed changes to unlock the use of contracting mechanisms that leverage private funds for public efficiency and renewable projects</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -5878,7 +5878,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>The Clean Power Plan I think makes a lot of sense moving forward</t>
+          <t>In recent years we have seen the impact of relying almost exclusively on natural gas based plants for new generation tight gas supply higher prices and backlogged projects for natural gas based plants</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -5888,27 +5888,27 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>My testimony aligns with the following points America is facing two national security threats one around climate change and the other around the US nuclear power enterprise</t>
+          <t>The wood products industry is a leading user of wood fiber and producer and user of carbonneutral renewable biomass energy to run our plants</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Members of my local union located in Michigan spent months working on the TransAlaska pipeline which covers 800 miles and carries oil from the North Slope of Alaska to Valdez Alaska</t>
+          <t>Every piece of equipment that a retailer uses to dispense fuel has to be listed as compatible with that fuel and up until about 10 years ago there were no dispensers listed for above E10</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>If thats the case for a State like Illinois if 40 percent of the power that we generate is nuclear what would that do to our national energy policy and the pocketbook issues what would it do to the price for the individual consumers</t>
+          <t>Diesel trucks are paying 450 a gallon for diesel</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -5918,27 +5918,27 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Well I am just in the research and analysis business but I would thinkand my friends in the industry can speak perhaps better but I think the biggest concern or two really one would be that the government is going to stand in the way of infrastructure projects that are needed to get investment in domestic oil and gas production and the second would be uncertainty about regulation of hydraulic fracturing going forward</t>
+          <t>When they heard about President Obamas proposal to put a tax of 10 on a barrel of American crude oil they all said what the heck what is he thinking</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Texas Pacific and Kohlberg Kravis Roberts the famous KKR purchased Texas Utility Corporation and agreed to terminate 8 of 11 proposed coalfired power plants</t>
+          <t>September 29 2008 an eightinch high pressure gas line at the YPad location separated sending three pieces of pipe to the tundra</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>But the good news here is that the shortterm energy markets appeared to adjust rather quickly to the collapse of the largest energy trading company in the world</t>
+          <t>The goals are to reduce foreign oil imports and improve air qualitynot subsidize American industry</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -5948,7 +5948,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>The consensus decision making rule Prior witnesses at these hearings have suggested that the consensus requirement of the 661 Committee made it difficult to establish effective oversight of the Oil for Food program</t>
+          <t>And I know that GE in my district is working on advanced battery manufacturing that will address storage capacity for renewables</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -5958,17 +5958,17 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>The mismanagement for example of nuclear waste clean up processes has been an ongoing Department of Energy problem across several Administrations</t>
+          <t>Each day more exploration and development activity in the Gulf is lost</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>One industry study estimates that there will be 600000 career opportunities for women and minorities in energy in the years ahead</t>
+          <t>Just a few short years ago many would have scoffed at the suggestion that America could produce enough domestic energy to expand its exports or that low natural gas prices would induce a manufacturing renaissance</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -5978,47 +5978,47 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Dr Ebinger paints a very positive picture resulting from lifting the crude oil export ban reporting a gain in GDP over the next 25 years of 600 billion orbillion to 18 trillion</t>
+          <t>So can you explain to why you thinkyou know I realize you decrease emissions but I just am not convinced that that particularly will change much the overall lifecycle of carbon emissions with the batterythe development of the batteries and what it costs to do that when you plug it in how the power is generated</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>The other waiver authority which you referenced is a general waiver authority where if the administrator can either be petitioned by a party or can on her own determine that the RFS implementation would create a severe economic harm to a region or a State and that the previous conversation we have been petitioned a couple of times and determined that again because of market dynamics and the demand that the refining industry has for ethanol that the statutory test simply was not met and we are not allowed to grant that waiver</t>
+          <t>As a result diesel vehicles will achieve gasolinelike emissions levels</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>And you know if we look at emissions they really have to be looked at on a global scale</t>
+          <t>However while we look forward to advanced nuclear technology development it is long overdue to solve our Nations nuclear waste disposal challenge</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>COMMINGLING OF DIVERGENT COMPLIANT FUELS First Congress should adopt a legislative provision to permit the commingling of divergent compliant fuels</t>
+          <t>While the nodrive program did not produce the desired results the cleaner burning gasoline did</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>For example should we use natural gas directly for transport or convert it to hydrogen first</t>
+          <t>Is that enough reliance or should we do modeling before we resume exploration and drilling in the Gulf of Mexico</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -6028,7 +6028,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>And what we need to do is focus on how can we most efficiently reduce consumption and help reduce those overall energy costs</t>
+          <t>In addition we need to take into account potential threat to the security of gas deliveries to consumers that will occur if we place a greater demand on our production and pipeline delivery capabilities than we have resources to meet</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -6038,11 +6038,81 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>I am pointing out the title of this hearing is legislation to respond to the BP oil spill and yet I dont see anything in this bill that actually helps us address the problems we are dealing with today</t>
+          <t>So what we say is we support a vigorous RD program both in reactor development and in recycling reprocessing spent fuel</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>S 389 extends the existing credit and creates a second drilling window that also applies to heavy oil</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>coal consumption Coal consumption is dominated by electric utilities which consume nearly 90 of all coal production</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>There has been a lot of investment and that has been a lot of indirect jobs that have gone into that in building renewable refinery capacity and it is all happened not at the expense of the petroleum industry</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>We have been asking for a number of years for the Department of Energy to do the necessary investigations to start making those kinds of determinations and we dont yet have that information in place</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Well the World Resources Institute doesnt take a particular position on this specific issue but certainly by reducing these upstream methane emissions we could ensure that natural gas is lowercarbonemittingor lowergreenhousegasemitting than coal or oil when oil and diesel fuel is used for transportation</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>The experts EPA and the National Academy of Sciences have already drawn the conclusion that especially in the short run when we need greenhouse gas reduction the most corn ethanol is increasing emissions by increasing the amount of carbon that is released into the atmosphere</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Contamination from industrial facilities pose a more troubling longterm concern with more than 40 oil spills recently reported in Louisiana by the Coast Guard and thousands of chemical containers spotted bubbling in the regions flood water</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
